--- a/CP 1/Libro1.xlsx
+++ b/CP 1/Libro1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Ancho</t>
   </si>
@@ -46,42 +46,9 @@
     <t>margen</t>
   </si>
   <si>
-    <t xml:space="preserve">new Vector2(96 , 86), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 129), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 172), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 215), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 258), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 301), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 344), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 387), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 430), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(96 , 473), </t>
-  </si>
-  <si>
     <t xml:space="preserve">new Vector2(96 , 0), </t>
   </si>
   <si>
-    <t xml:space="preserve">new Vector2(96 , 559), </t>
-  </si>
-  <si>
     <t xml:space="preserve">new Vector2(144 , 559), </t>
   </si>
   <si>
@@ -200,6 +167,63 @@
   </si>
   <si>
     <t xml:space="preserve">new Vector2(816 , 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 559), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 129), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 172), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 215), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 258), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 301), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 344), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 387), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 430), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 473), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 86), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 43), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(912 , 43), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 516), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(912 , 516), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(48 , 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(864 , 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(48 , 559), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(864 , 559), </t>
   </si>
 </sst>
 </file>
@@ -253,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -263,6 +287,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,13 +1272,13 @@
   <dimension ref="G1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
     <col min="16" max="16" width="4.140625" customWidth="1"/>
   </cols>
@@ -1261,7 +1291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:33" ht="105.75" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>1</v>
       </c>
@@ -1275,69 +1305,85 @@
       <c r="J2">
         <v>14</v>
       </c>
-      <c r="N2" t="str">
+      <c r="L2" s="4" t="str">
+        <f t="shared" ref="L2:M2" si="0">CONCATENATE("new Vector2(",L$4," , ",$J6,"), ")</f>
+        <v xml:space="preserve">new Vector2(0 , 0), </v>
+      </c>
+      <c r="M2" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">new Vector2(48 , 0), </v>
+      </c>
+      <c r="N2" s="4" t="str">
         <f>CONCATENATE("new Vector2(",N$4," , ",$J6,"), ")</f>
         <v xml:space="preserve">new Vector2(96 , 0), </v>
       </c>
-      <c r="O2" t="str">
-        <f t="shared" ref="O2:AC2" si="0">CONCATENATE("new Vector2(",O$4," , ",$J6,"), ")</f>
+      <c r="O2" s="4" t="str">
+        <f t="shared" ref="O2:AE2" si="1">CONCATENATE("new Vector2(",O$4," , ",$J6,"), ")</f>
         <v xml:space="preserve">new Vector2(144 , 0), </v>
       </c>
-      <c r="P2" t="str">
-        <f t="shared" si="0"/>
+      <c r="P2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(192 , 0), </v>
       </c>
-      <c r="Q2" t="str">
-        <f t="shared" si="0"/>
+      <c r="Q2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(240 , 0), </v>
       </c>
-      <c r="R2" t="str">
-        <f t="shared" si="0"/>
+      <c r="R2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(288 , 0), </v>
       </c>
-      <c r="S2" t="str">
-        <f t="shared" si="0"/>
+      <c r="S2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(336 , 0), </v>
       </c>
-      <c r="T2" t="str">
-        <f t="shared" si="0"/>
+      <c r="T2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(384 , 0), </v>
       </c>
-      <c r="U2" t="str">
-        <f t="shared" si="0"/>
+      <c r="U2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(432 , 0), </v>
       </c>
-      <c r="V2" t="str">
-        <f t="shared" si="0"/>
+      <c r="V2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(480 , 0), </v>
       </c>
-      <c r="W2" t="str">
-        <f t="shared" si="0"/>
+      <c r="W2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(528 , 0), </v>
       </c>
-      <c r="X2" t="str">
-        <f t="shared" si="0"/>
+      <c r="X2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(576 , 0), </v>
       </c>
-      <c r="Y2" t="str">
-        <f t="shared" si="0"/>
+      <c r="Y2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(624 , 0), </v>
       </c>
-      <c r="Z2" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(672 , 0), </v>
       </c>
-      <c r="AA2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AA2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(720 , 0), </v>
       </c>
-      <c r="AB2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AB2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(768 , 0), </v>
       </c>
-      <c r="AC2" t="str">
-        <f t="shared" si="0"/>
+      <c r="AC2" s="4" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve">new Vector2(816 , 0), </v>
+      </c>
+      <c r="AD2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(864 , 0), </v>
+      </c>
+      <c r="AE2" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(912 , 0), </v>
       </c>
     </row>
     <row r="3" spans="7:33" x14ac:dyDescent="0.25">
@@ -1364,138 +1410,142 @@
         <v>48</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:AE4" si="1">ROUND(M4+$I$3,0)</f>
+        <f t="shared" ref="N4:AE4" si="2">ROUND(M4+$I$3,0)</f>
         <v>96</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="T4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>384</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>432</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="W4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>528</v>
       </c>
       <c r="X4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>576</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>624</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>672</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>768</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>816</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>864</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>912</v>
       </c>
     </row>
     <row r="6" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f>CONCATENATE("new Vector2(",L$4," , ",$J6,"), ")</f>
+        <v xml:space="preserve">new Vector2(0 , 0), </v>
+      </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2"/>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:AA6" si="2">O6+1</f>
+        <f t="shared" ref="N6:AA6" si="3">O6+1</f>
         <v>52</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="AB6" s="1">
@@ -1508,8 +1558,16 @@
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1"/>
+      <c r="AG6" t="str">
+        <f t="shared" ref="AG6:AG7" si="4">CONCATENATE("new Vector2(",AE$4," , ",$J6,"), ")</f>
+        <v xml:space="preserve">new Vector2(912 , 0), </v>
+      </c>
     </row>
     <row r="7" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" ref="H7:H19" si="5">CONCATENATE("new Vector2(",L$4," , ",$J7,"), ")</f>
+        <v xml:space="preserve">new Vector2(0 , 43), </v>
+      </c>
       <c r="J7">
         <f>ROUND(J6+$I$2,0)</f>
         <v>43</v>
@@ -1534,14 +1592,18 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
+      <c r="AG7" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">new Vector2(912 , 43), </v>
+      </c>
     </row>
     <row r="8" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H8" t="str">
-        <f>CONCATENATE("new Vector2(",N$4," , ",$J8,"), ")</f>
-        <v xml:space="preserve">new Vector2(96 , 86), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">new Vector2(0 , 86), </v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J19" si="3">ROUND(J7+$I$2,0)</f>
+        <f t="shared" ref="J8:J19" si="6">ROUND(J7+$I$2,0)</f>
         <v>86</v>
       </c>
       <c r="L8" s="1">
@@ -1566,7 +1628,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1">
-        <f t="shared" ref="AE8:AE15" si="4">AE9+1</f>
+        <f t="shared" ref="AE8:AE15" si="7">AE9+1</f>
         <v>36</v>
       </c>
       <c r="AG8" t="str">
@@ -1576,11 +1638,11 @@
     </row>
     <row r="9" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H9" t="str">
-        <f t="shared" ref="H9:H17" si="5">CONCATENATE("new Vector2(",N$4," , ",$J9,"), ")</f>
-        <v xml:space="preserve">new Vector2(96 , 129), </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">new Vector2(0 , 129), </v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="L9" s="1">
@@ -1606,25 +1668,25 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AG9" t="str">
-        <f t="shared" ref="AG9:AG17" si="6">CONCATENATE("new Vector2(",AE$4," , ",$J9,"), ")</f>
+        <f t="shared" ref="AG9:AG19" si="8">CONCATENATE("new Vector2(",AE$4," , ",$J9,"), ")</f>
         <v xml:space="preserve">new Vector2(912 , 129), </v>
       </c>
     </row>
     <row r="10" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 172), </v>
+        <v xml:space="preserve">new Vector2(0 , 172), </v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L17" si="7">L9+1</f>
+        <f t="shared" ref="L10:L17" si="9">L9+1</f>
         <v>3</v>
       </c>
       <c r="M10" s="2"/>
@@ -1646,25 +1708,25 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="AG10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 172), </v>
       </c>
     </row>
     <row r="11" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H11" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 215), </v>
+        <v xml:space="preserve">new Vector2(0 , 215), </v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="M11" s="2"/>
@@ -1686,25 +1748,25 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="AG11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 215), </v>
       </c>
     </row>
     <row r="12" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H12" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 258), </v>
+        <v xml:space="preserve">new Vector2(0 , 258), </v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>258</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="M12" s="2"/>
@@ -1726,25 +1788,25 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AG12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 258), </v>
       </c>
     </row>
     <row r="13" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H13" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 301), </v>
+        <v xml:space="preserve">new Vector2(0 , 301), </v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>301</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="M13" s="2"/>
@@ -1766,25 +1828,25 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="AG13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 301), </v>
       </c>
     </row>
     <row r="14" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H14" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 344), </v>
+        <v xml:space="preserve">new Vector2(0 , 344), </v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="M14" s="2"/>
@@ -1806,25 +1868,25 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 344), </v>
       </c>
     </row>
     <row r="15" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H15" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 387), </v>
+        <v xml:space="preserve">new Vector2(0 , 387), </v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="M15" s="2"/>
@@ -1846,25 +1908,25 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 387), </v>
       </c>
     </row>
     <row r="16" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H16" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 430), </v>
+        <v xml:space="preserve">new Vector2(0 , 430), </v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="M16" s="2"/>
@@ -1890,21 +1952,21 @@
         <v>28</v>
       </c>
       <c r="AG16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 430), </v>
       </c>
     </row>
     <row r="17" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H17" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">new Vector2(96 , 473), </v>
+        <v xml:space="preserve">new Vector2(0 , 473), </v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>473</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="M17" s="2"/>
@@ -1930,13 +1992,17 @@
         <v>27</v>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">new Vector2(912 , 473), </v>
       </c>
     </row>
     <row r="18" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">new Vector2(0 , 516), </v>
+      </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>516</v>
       </c>
       <c r="L18" s="2"/>
@@ -1959,10 +2025,18 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
+      <c r="AG18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(912 , 516), </v>
+      </c>
     </row>
     <row r="19" spans="8:33" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">new Vector2(0 , 559), </v>
+      </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>559</v>
       </c>
       <c r="L19" s="1"/>
@@ -1976,128 +2050,148 @@
         <v>12</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19:AC19" si="8">O19+1</f>
+        <f t="shared" ref="P19:AC19" si="10">O19+1</f>
         <v>13</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1"/>
-    </row>
-    <row r="21" spans="8:33" x14ac:dyDescent="0.25">
-      <c r="N21" t="str">
+      <c r="AG19" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(912 , 559), </v>
+      </c>
+    </row>
+    <row r="21" spans="8:33" ht="117" x14ac:dyDescent="0.25">
+      <c r="L21" s="5" t="str">
+        <f t="shared" ref="L21:M21" si="11">CONCATENATE("new Vector2(",L$4," , ",$J19,"), ")</f>
+        <v xml:space="preserve">new Vector2(0 , 559), </v>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(48 , 559), </v>
+      </c>
+      <c r="N21" s="5" t="str">
         <f>CONCATENATE("new Vector2(",N$4," , ",$J19,"), ")</f>
         <v xml:space="preserve">new Vector2(96 , 559), </v>
       </c>
-      <c r="O21" t="str">
-        <f t="shared" ref="O21:AC21" si="9">CONCATENATE("new Vector2(",O$4," , ",$J19,"), ")</f>
+      <c r="O21" s="5" t="str">
+        <f t="shared" ref="O21:AE21" si="12">CONCATENATE("new Vector2(",O$4," , ",$J19,"), ")</f>
         <v xml:space="preserve">new Vector2(144 , 559), </v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" si="9"/>
+      <c r="P21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(192 , 559), </v>
       </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="9"/>
+      <c r="Q21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(240 , 559), </v>
       </c>
-      <c r="R21" t="str">
-        <f t="shared" si="9"/>
+      <c r="R21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(288 , 559), </v>
       </c>
-      <c r="S21" t="str">
-        <f t="shared" si="9"/>
+      <c r="S21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(336 , 559), </v>
       </c>
-      <c r="T21" t="str">
-        <f t="shared" si="9"/>
+      <c r="T21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(384 , 559), </v>
       </c>
-      <c r="U21" t="str">
-        <f t="shared" si="9"/>
+      <c r="U21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(432 , 559), </v>
       </c>
-      <c r="V21" t="str">
-        <f t="shared" si="9"/>
+      <c r="V21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(480 , 559), </v>
       </c>
-      <c r="W21" t="str">
-        <f t="shared" si="9"/>
+      <c r="W21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(528 , 559), </v>
       </c>
-      <c r="X21" t="str">
-        <f t="shared" si="9"/>
+      <c r="X21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(576 , 559), </v>
       </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="9"/>
+      <c r="Y21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(624 , 559), </v>
       </c>
-      <c r="Z21" t="str">
-        <f t="shared" si="9"/>
+      <c r="Z21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(672 , 559), </v>
       </c>
-      <c r="AA21" t="str">
-        <f t="shared" si="9"/>
+      <c r="AA21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(720 , 559), </v>
       </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="9"/>
+      <c r="AB21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(768 , 559), </v>
       </c>
-      <c r="AC21" t="str">
-        <f t="shared" si="9"/>
+      <c r="AC21" s="5" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">new Vector2(816 , 559), </v>
+      </c>
+      <c r="AD21" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">new Vector2(864 , 559), </v>
+      </c>
+      <c r="AE21" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">new Vector2(912 , 559), </v>
       </c>
     </row>
   </sheetData>
@@ -2107,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:A52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2214,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -2128,7 +2222,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2136,7 +2230,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2144,7 +2238,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2152,7 +2246,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -2160,7 +2254,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -2168,7 +2262,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -2176,7 +2270,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -2184,7 +2278,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -2192,7 +2286,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2200,7 +2294,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -2208,7 +2302,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -2216,7 +2310,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -2224,7 +2318,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -2232,7 +2326,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -2240,135 +2334,159 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -2376,7 +2494,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -2384,7 +2502,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -2392,7 +2510,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -2400,7 +2518,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -2408,7 +2526,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -2416,7 +2534,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -2424,7 +2542,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -2432,7 +2550,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -2440,7 +2558,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -2448,7 +2566,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -2456,7 +2574,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -2464,7 +2582,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -2472,7 +2590,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -2480,7 +2598,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -2488,7 +2606,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -2496,7 +2614,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -2504,7 +2622,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -2512,7 +2630,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -2520,7 +2638,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -2528,7 +2646,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>52</v>

--- a/CP 1/Libro1.xlsx
+++ b/CP 1/Libro1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Ancho</t>
   </si>
@@ -202,28 +202,7 @@
     <t xml:space="preserve">new Vector2(0 , 86), </t>
   </si>
   <si>
-    <t xml:space="preserve">new Vector2(0 , 43), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(912 , 43), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(0 , 516), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(912 , 516), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(48 , 0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(864 , 0), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(48 , 559), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new Vector2(864 , 559), </t>
+    <t xml:space="preserve">new Vector2(96 , 559), </t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC6" sqref="N2:AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,67 +1473,67 @@
       <c r="M6" s="2"/>
       <c r="N6" s="1">
         <f t="shared" ref="N6:AA6" si="3">O6+1</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB6" s="1">
         <f>AC6+1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="1">
         <f>AE8+1</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="1"/>
@@ -1607,7 +1586,7 @@
         <v>86</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
@@ -1629,7 +1608,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="1">
         <f t="shared" ref="AE8:AE15" si="7">AE9+1</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG8" t="str">
         <f>CONCATENATE("new Vector2(",AE$4," , ",$J8,"), ")</f>
@@ -1647,7 +1626,7 @@
       </c>
       <c r="L9" s="1">
         <f>L8+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
@@ -1669,7 +1648,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="1">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="str">
         <f t="shared" ref="AG9:AG19" si="8">CONCATENATE("new Vector2(",AE$4," , ",$J9,"), ")</f>
@@ -1687,7 +1666,7 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" ref="L10:L17" si="9">L9+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="3"/>
@@ -1709,7 +1688,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="8"/>
@@ -1727,7 +1706,7 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
@@ -1749,7 +1728,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="8"/>
@@ -1767,7 +1746,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
@@ -1789,7 +1768,7 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="8"/>
@@ -1807,7 +1786,7 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
@@ -1829,7 +1808,7 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="8"/>
@@ -1847,7 +1826,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
@@ -1869,7 +1848,7 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="8"/>
@@ -1887,7 +1866,7 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
@@ -1909,7 +1888,7 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" si="8"/>
@@ -1927,7 +1906,7 @@
       </c>
       <c r="L16" s="1">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
@@ -1949,7 +1928,7 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="1">
         <f>AE17+1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="str">
         <f t="shared" si="8"/>
@@ -1967,7 +1946,7 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
@@ -1989,7 +1968,7 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="1">
         <f>AC19+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="8"/>
@@ -2043,67 +2022,67 @@
       <c r="M19" s="2"/>
       <c r="N19" s="1">
         <f>L17+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O19" s="1">
         <f>N19+1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" ref="P19:AC19" si="10">O19+1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1"/>
@@ -2201,460 +2180,749 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
-      <c r="I22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24">
         <v>24</v>
       </c>
-      <c r="I24" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
-      <c r="I25" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B52">
-    <sortCondition ref="B1:B52"/>
+  <sortState ref="D1:E52">
+    <sortCondition ref="E1:E52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CP 1/Libro1.xlsx
+++ b/CP 1/Libro1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jom\Documents\Desarrollos\Github\CP1-1\CP 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jossa\Documents\Arduino\CP1-1\CP 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="138">
   <si>
     <t>Ancho</t>
   </si>
@@ -203,6 +204,243 @@
   </si>
   <si>
     <t xml:space="preserve">new Vector2(96 , 559), </t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> posicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ancho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> orientacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arranque</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 43), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0 , 516), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(0, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(1, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(2, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(3, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(4, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(5, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(6, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(7, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(8, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(9, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(10, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(11, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(12, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0, -5), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(0, 5), </t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(48 , 559), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(864 , 559), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(912 , 559), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 1), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 2), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 3), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 4), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 5), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 6), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 7), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 8), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 9), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 10), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 11), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 12), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 13), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 14), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 15), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 16), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 17), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 18), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(13, 19), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(-5, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(5, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(48 , 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(864 , 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(912 , 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(912 , 43), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Vector2(912 , 516), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(14, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(15, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(16, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(17, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(18, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 0), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 1), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 2), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 3), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 4), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 5), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 6), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 7), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 8), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 9), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 10), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 11), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new Point(19, 12), </t>
+  </si>
+  <si>
+    <t>concatenar</t>
   </si>
 </sst>
 </file>
@@ -256,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -273,6 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,7 +1490,7 @@
   <dimension ref="G1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC6" sqref="N2:AC6"/>
+      <selection activeCell="AE6" sqref="AE6:AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,89 +1708,103 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6:AC6" si="3">N6+1</f>
+        <v>63</v>
+      </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:AA6" si="3">O6+1</f>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="1">
-        <f>AC6+1</f>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
       <c r="AC6" s="1">
-        <f>AE8+1</f>
-        <v>36</v>
-      </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="1"/>
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="AD6" s="2">
+        <f>AE6+1</f>
+        <v>46</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" ref="AE6:AE17" si="4">AE7+1</f>
+        <v>45</v>
+      </c>
       <c r="AG6" t="str">
-        <f t="shared" ref="AG6:AG7" si="4">CONCATENATE("new Vector2(",AE$4," , ",$J6,"), ")</f>
+        <f t="shared" ref="AG6:AG7" si="5">CONCATENATE("new Vector2(",AE$4," , ",$J6,"), ")</f>
         <v xml:space="preserve">new Vector2(912 , 0), </v>
       </c>
     </row>
     <row r="7" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H19" si="5">CONCATENATE("new Vector2(",L$4," , ",$J7,"), ")</f>
+        <f t="shared" ref="H7:H19" si="6">CONCATENATE("new Vector2(",L$4," , ",$J7,"), ")</f>
         <v xml:space="preserve">new Vector2(0 , 43), </v>
       </c>
       <c r="J7">
         <f>ROUND(J6+$I$2,0)</f>
         <v>43</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <f>L6+1</f>
+        <v>1</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1570,23 +1823,27 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
       <c r="AG7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">new Vector2(912 , 43), </v>
       </c>
     </row>
     <row r="8" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 86), </v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J19" si="6">ROUND(J7+$I$2,0)</f>
+        <f t="shared" ref="J8:J19" si="7">ROUND(J7+$I$2,0)</f>
         <v>86</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <f t="shared" ref="L8:L19" si="8">L7+1</f>
+        <v>2</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
@@ -1607,8 +1864,8 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1">
-        <f t="shared" ref="AE8:AE15" si="7">AE9+1</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>43</v>
       </c>
       <c r="AG8" t="str">
         <f>CONCATENATE("new Vector2(",AE$4," , ",$J8,"), ")</f>
@@ -1617,16 +1874,16 @@
     </row>
     <row r="9" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 129), </v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="L9" s="1">
-        <f>L8+1</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
@@ -1647,26 +1904,26 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1">
-        <f t="shared" si="7"/>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="AG9" t="str">
-        <f t="shared" ref="AG9:AG19" si="8">CONCATENATE("new Vector2(",AE$4," , ",$J9,"), ")</f>
+        <f t="shared" ref="AG9:AG19" si="9">CONCATENATE("new Vector2(",AE$4," , ",$J9,"), ")</f>
         <v xml:space="preserve">new Vector2(912 , 129), </v>
       </c>
     </row>
     <row r="10" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 172), </v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>172</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L17" si="9">L9+1</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="3"/>
@@ -1687,26 +1944,26 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="1">
-        <f t="shared" si="7"/>
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="AG10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 172), </v>
       </c>
     </row>
     <row r="11" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 215), </v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>215</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="3"/>
@@ -1727,26 +1984,26 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="AG11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 215), </v>
       </c>
     </row>
     <row r="12" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 258), </v>
       </c>
       <c r="J12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>258</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
@@ -1767,26 +2024,26 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="1">
-        <f t="shared" si="7"/>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="AG12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 258), </v>
       </c>
     </row>
     <row r="13" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 301), </v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>301</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
@@ -1807,26 +2064,26 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>38</v>
       </c>
       <c r="AG13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 301), </v>
       </c>
     </row>
     <row r="14" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 344), </v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>344</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
@@ -1847,26 +2104,26 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="1">
-        <f t="shared" si="7"/>
-        <v>29</v>
+        <f t="shared" si="4"/>
+        <v>37</v>
       </c>
       <c r="AG14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 344), </v>
       </c>
     </row>
     <row r="15" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 387), </v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>387</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
@@ -1887,26 +2144,26 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
       <c r="AG15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 387), </v>
       </c>
     </row>
     <row r="16" spans="7:33" x14ac:dyDescent="0.25">
       <c r="H16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 430), </v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
@@ -1927,26 +2184,26 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="1">
-        <f>AE17+1</f>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="AG16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 430), </v>
       </c>
     </row>
     <row r="17" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 473), </v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>473</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
@@ -1967,24 +2224,27 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1">
-        <f>AC19+1</f>
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>34</v>
       </c>
       <c r="AG17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 473), </v>
       </c>
     </row>
     <row r="18" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 516), </v>
       </c>
       <c r="J18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>516</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2003,91 +2263,106 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="AE18" s="2">
+        <f>AE19+1</f>
+        <v>33</v>
+      </c>
       <c r="AG18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 516), </v>
       </c>
     </row>
     <row r="19" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">new Vector2(0 , 559), </v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>559</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
+      <c r="L19" s="1">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="M19" s="2">
+        <f>L19+1</f>
+        <v>14</v>
+      </c>
       <c r="N19" s="1">
-        <f>L17+1</f>
-        <v>10</v>
+        <f t="shared" ref="N19:AE19" si="10">M19+1</f>
+        <v>15</v>
       </c>
       <c r="O19" s="1">
-        <f>N19+1</f>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19:AC19" si="10">O19+1</f>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="AD19" s="2">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
       <c r="AG19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">new Vector2(912 , 559), </v>
       </c>
     </row>
@@ -2180,749 +2455,3160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B1">
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>43</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B1:C52">
+    <sortCondition ref="C1:C52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("listaCasas.Add(new Casas2(",A2,", ",B2,C2,", ",D2,", '",E2,"', ",F2,G2,"'",H2,"'));")</f>
+        <v>listaCasas.Add(new Casas2(0, new Vector2(0 , 0), 43, 48, 'v', new Point(0, 0), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I65" si="0">CONCATENATE("listaCasas.Add(new Casas2(",A3,", ",B3,C3,", ",D3,", '",E3,"', ",F3,G3,"'",H3,"'));")</f>
+        <v>listaCasas.Add(new Casas2(1, new Vector2(0 , 43), 43, 48, 'v', new Point(1, 0), new Vector2(0, -5), 's'));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="E1">
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(2, new Vector2(0 , 86), 43, 48, 'v', new Point(2, 0), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(3, new Vector2(0 , 129), 43, 48, 'v', new Point(3, 0), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(4, new Vector2(0 , 172), 43, 48, 'v', new Point(4, 0), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(5, new Vector2(0 , 215), 43, 48, 'v', new Point(5, 0), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(6, new Vector2(0 , 258), 43, 48, 'v', new Point(6, 0), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(7, new Vector2(0 , 301), 43, 48, 'v', new Point(7, 0), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(8, new Vector2(0 , 344), 43, 48, 'v', new Point(8, 0), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(9, new Vector2(0 , 387), 43, 48, 'v', new Point(9, 0), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(10, new Vector2(0 , 430), 43, 48, 'v', new Point(10, 0), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(11, new Vector2(0 , 473), 43, 48, 'v', new Point(11, 0), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(12, new Vector2(0 , 516), 43, 48, 'v', new Point(12, 0), new Vector2(0, 5), 's'));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(13, new Vector2(0 , 559), 43, 48, 'v', new Point(13, 0), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(14, new Vector2(48 , 559), 43, 48, 'h', new Point(13, 1), new Vector2(-5, 0), 's'));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(15, new Vector2(96 , 559), 43, 48, 'h', new Point(13, 2), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(16, new Vector2(144 , 559), 43, 48, 'h', new Point(13, 3), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(17, new Vector2(192 , 559), 43, 48, 'h', new Point(13, 4), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(18, new Vector2(240 , 559), 43, 48, 'h', new Point(13, 5), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(19, new Vector2(288 , 559), 43, 48, 'h', new Point(13, 6), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(20, new Vector2(336 , 559), 43, 48, 'h', new Point(13, 7), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(21, new Vector2(384 , 559), 43, 48, 'h', new Point(13, 8), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(22, new Vector2(432 , 559), 43, 48, 'h', new Point(13, 9), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(23, new Vector2(480 , 559), 43, 48, 'h', new Point(13, 10), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(24, new Vector2(528 , 559), 43, 48, 'h', new Point(13, 11), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J26" t="str">
+        <f>CONCATENATE("new Point(",K26,", ",L26,"), ")</f>
+        <v xml:space="preserve">new Point(19, 0), </v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
+      <c r="N26" t="str">
+        <f>CONCATENATE("new Vector2(",O26,", ",P26,"), ")</f>
+        <v xml:space="preserve">new Vector2(0, -5), </v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(25, new Vector2(576 , 559), 43, 48, 'h', new Point(13, 12), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27:J39" si="1">CONCATENATE("new Point(",K27,", ",L27,"), ")</f>
+        <v xml:space="preserve">new Point(19, 1), </v>
+      </c>
+      <c r="K27">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" ref="N27:N39" si="2">CONCATENATE("new Vector2(",O27,", ",P27,"), ")</f>
+        <v xml:space="preserve">new Vector2(0, -5), </v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(26, new Vector2(624 , 559), 43, 48, 'h', new Point(13, 13), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 2), </v>
+      </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
+      <c r="L28">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, -5), </v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(27, new Vector2(672 , 559), 43, 48, 'h', new Point(13, 14), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 3), </v>
+      </c>
+      <c r="K29">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, -5), </v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(28, new Vector2(720 , 559), 43, 48, 'h', new Point(13, 15), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 4), </v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, -5), </v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(29, new Vector2(768 , 559), 43, 48, 'h', new Point(13, 16), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 5), </v>
+      </c>
+      <c r="K31">
+        <v>19</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, -5), </v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(30, new Vector2(816 , 559), 43, 48, 'h', new Point(13, 17), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 6), </v>
+      </c>
+      <c r="K32">
+        <v>19</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, 5), </v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(31, new Vector2(864 , 559), 43, 48, 'h', new Point(13, 18), new Vector2(5, 0), 's'));</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 7), </v>
+      </c>
+      <c r="K33">
+        <v>19</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, 5), </v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(32, new Vector2(912 , 559), 43, 48, 'h', new Point(13, 19), new Vector2(5, 0), 'c'));</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 8), </v>
+      </c>
+      <c r="K34">
+        <v>19</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, 5), </v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(33, new Vector2(912 , 516), 43, 48, 'v', new Point(19, 12), new Vector2(0, 5), 's'));</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 9), </v>
+      </c>
+      <c r="K35">
+        <v>19</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, 5), </v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(34, new Vector2(912 , 473), 43, 48, 'v', new Point(19, 11), new Vector2(0, 5), 'c'));</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 10), </v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, 5), </v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(35, new Vector2(912 , 430), 43, 48, 'v', new Point(19, 10), new Vector2(0, 5), 'c'));</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 11), </v>
+      </c>
+      <c r="K37">
+        <v>19</v>
+      </c>
+      <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, 5), </v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(36, new Vector2(912 , 387), 43, 48, 'v', new Point(19, 9), new Vector2(0, 5), 'c'));</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Point(19, 12), </v>
+      </c>
+      <c r="K38">
+        <v>19</v>
+      </c>
+      <c r="L38">
+        <v>12</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Vector2(0, 5), </v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(37, new Vector2(912 , 344), 43, 48, 'v', new Point(19, 8), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(38, new Vector2(912 , 301), 43, 48, 'v', new Point(19, 7), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(39, new Vector2(912 , 258), 43, 48, 'v', new Point(19, 6), new Vector2(0, 5), 'c'));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(40, new Vector2(912 , 215), 43, 48, 'v', new Point(19, 5), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(41, new Vector2(912 , 172), 43, 48, 'v', new Point(19, 4), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(42, new Vector2(912 , 129), 43, 48, 'v', new Point(19, 3), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(43, new Vector2(912 , 86), 43, 48, 'v', new Point(19, 2), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(44, new Vector2(912 , 43), 43, 48, 'v', new Point(19, 1), new Vector2(0, -5), 's'));</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(45, new Vector2(912 , 0), 43, 48, 'v', new Point(19, 0), new Vector2(0, -5), 'c'));</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(46, new Vector2(864 , 0), 43, 48, 'h', new Point(18, 0), new Vector2(5, 0), 's'));</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(47, new Vector2(816 , 0), 43, 48, 'h', new Point(17, 0), new Vector2(5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>43</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(48, new Vector2(768 , 0), 43, 48, 'h', new Point(16, 0), new Vector2(5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(49, new Vector2(720 , 0), 43, 48, 'h', new Point(15, 0), new Vector2(5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(50, new Vector2(672 , 0), 43, 48, 'h', new Point(14, 0), new Vector2(5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(51, new Vector2(624 , 0), 43, 48, 'h', new Point(13, 0), new Vector2(5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B6">
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>43</v>
+      </c>
+      <c r="D54">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(52, new Vector2(576 , 0), 43, 48, 'h', new Point(12, 0), new Vector2(5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(53, new Vector2(528 , 0), 43, 48, 'h', new Point(11, 0), new Vector2(5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>43</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(54, new Vector2(480 , 0), 43, 48, 'h', new Point(10, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>43</v>
+      </c>
+      <c r="D57">
+        <v>48</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(55, new Vector2(432 , 0), 43, 48, 'h', new Point(9, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>43</v>
+      </c>
+      <c r="D58">
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(56, new Vector2(384 , 0), 43, 48, 'h', new Point(8, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>43</v>
+      </c>
+      <c r="D59">
+        <v>48</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(57, new Vector2(336 , 0), 43, 48, 'h', new Point(7, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(58, new Vector2(288 , 0), 43, 48, 'h', new Point(6, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>43</v>
+      </c>
+      <c r="D61">
+        <v>48</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(59, new Vector2(240 , 0), 43, 48, 'h', new Point(5, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>48</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(60, new Vector2(192 , 0), 43, 48, 'h', new Point(4, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>48</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(61, new Vector2(144 , 0), 43, 48, 'h', new Point(3, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>39</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>41</v>
-      </c>
-      <c r="D41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46">
-        <v>46</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48">
-        <v>48</v>
-      </c>
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51">
-        <v>51</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>51</v>
+      <c r="C64">
+        <v>43</v>
+      </c>
+      <c r="D64">
+        <v>48</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(62, new Vector2(96 , 0), 43, 48, 'h', new Point(2, 0), new Vector2(-5, 0), 'c'));</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65">
+        <v>43</v>
+      </c>
+      <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>listaCasas.Add(new Casas2(63, new Vector2(48 , 0), 43, 48, 'h', new Point(1, 0), new Vector2(-5, 0), 's'));</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D1:E52">
-    <sortCondition ref="E1:E52"/>
+  <sortState ref="A2:H65">
+    <sortCondition ref="A2:A65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CP 1/Libro1.xlsx
+++ b/CP 1/Libro1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Campo de juego" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="149">
   <si>
     <t>Ancho</t>
   </si>
@@ -441,6 +442,39 @@
   </si>
   <si>
     <t>concatenar</t>
+  </si>
+  <si>
+    <t>bruto</t>
+  </si>
+  <si>
+    <t>redondeado</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>ancho</t>
+  </si>
+  <si>
+    <t>posicion</t>
+  </si>
+  <si>
+    <t>Ancho2</t>
+  </si>
+  <si>
+    <t>ancho bruto</t>
+  </si>
+  <si>
+    <t>horientacion</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>arranque</t>
   </si>
 </sst>
 </file>
@@ -456,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +515,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -494,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -512,6 +558,9 @@
       <alignment textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,6 +576,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="262890" y="4429125"/>
+          <a:ext cx="3566160" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1487,10 +1596,938 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>43</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>43</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>43</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>48</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B1:C52">
+    <sortCondition ref="C1:C52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:AG21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6:AE18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,940 +3490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8">
-        <v>43</v>
-      </c>
-      <c r="D8">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>43</v>
-      </c>
-      <c r="D15">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>43</v>
-      </c>
-      <c r="D16">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>43</v>
-      </c>
-      <c r="D19">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>43</v>
-      </c>
-      <c r="D21">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>43</v>
-      </c>
-      <c r="D22">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>43</v>
-      </c>
-      <c r="D23">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>43</v>
-      </c>
-      <c r="D24">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>43</v>
-      </c>
-      <c r="D25">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>43</v>
-      </c>
-      <c r="D26">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>43</v>
-      </c>
-      <c r="D27">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>43</v>
-      </c>
-      <c r="D28">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>43</v>
-      </c>
-      <c r="D29">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>48</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32">
-        <v>43</v>
-      </c>
-      <c r="D32">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>43</v>
-      </c>
-      <c r="D33">
-        <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34">
-        <v>43</v>
-      </c>
-      <c r="D34">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35">
-        <v>43</v>
-      </c>
-      <c r="D35">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36">
-        <v>43</v>
-      </c>
-      <c r="D36">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37">
-        <v>43</v>
-      </c>
-      <c r="D37">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38">
-        <v>43</v>
-      </c>
-      <c r="D38">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>43</v>
-      </c>
-      <c r="D39">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40">
-        <v>43</v>
-      </c>
-      <c r="D40">
-        <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41">
-        <v>43</v>
-      </c>
-      <c r="D41">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42">
-        <v>43</v>
-      </c>
-      <c r="D42">
-        <v>48</v>
-      </c>
-      <c r="E42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43">
-        <v>43</v>
-      </c>
-      <c r="D43">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>43</v>
-      </c>
-      <c r="D44">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45">
-        <v>43</v>
-      </c>
-      <c r="D45">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46">
-        <v>43</v>
-      </c>
-      <c r="D46">
-        <v>48</v>
-      </c>
-      <c r="E46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47">
-        <v>43</v>
-      </c>
-      <c r="D47">
-        <v>48</v>
-      </c>
-      <c r="E47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48">
-        <v>43</v>
-      </c>
-      <c r="D48">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49">
-        <v>43</v>
-      </c>
-      <c r="D49">
-        <v>48</v>
-      </c>
-      <c r="E49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50">
-        <v>43</v>
-      </c>
-      <c r="D50">
-        <v>48</v>
-      </c>
-      <c r="E50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51">
-        <v>43</v>
-      </c>
-      <c r="D51">
-        <v>48</v>
-      </c>
-      <c r="E51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52">
-        <v>43</v>
-      </c>
-      <c r="D52">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53">
-        <v>43</v>
-      </c>
-      <c r="D53">
-        <v>48</v>
-      </c>
-      <c r="E53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B1:C52">
-    <sortCondition ref="C1:C52"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,7 +4335,7 @@
         <v>listaCasas.Add(new Casas2(25, new Vector2(576 , 559), 43, 48, 'h', new Point(13, 12), new Vector2(5, 0), 'c'));</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27:J39" si="1">CONCATENATE("new Point(",K27,", ",L27,"), ")</f>
+        <f t="shared" ref="J27:J38" si="1">CONCATENATE("new Point(",K27,", ",L27,"), ")</f>
         <v xml:space="preserve">new Point(19, 1), </v>
       </c>
       <c r="K27">
@@ -4236,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" ref="N27:N39" si="2">CONCATENATE("new Vector2(",O27,", ",P27,"), ")</f>
+        <f t="shared" ref="N27:N38" si="2">CONCATENATE("new Vector2(",O27,", ",P27,"), ")</f>
         <v xml:space="preserve">new Vector2(0, -5), </v>
       </c>
       <c r="O27">
@@ -5612,4 +5721,1253 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AJ31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="21" width="5.7109375" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" customWidth="1"/>
+    <col min="32" max="32" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>600</v>
+      </c>
+      <c r="K2">
+        <f>J2/L2</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+    </row>
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>960</v>
+      </c>
+      <c r="K3">
+        <f>J3/L3</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4">
+        <v>850</v>
+      </c>
+      <c r="K4">
+        <f>J4/L4</f>
+        <v>60.714285714285715</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <f>(J3-J4)/2</f>
+        <v>55</v>
+      </c>
+      <c r="R4" t="str">
+        <f>R13</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(0, new Vector2(0, 0), 67, 124, 'v', new Point(0, 0), new Vector2(1, -4), 'c'));</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>(H21-H13)/L2</f>
+        <v>-6.1111111111111107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",D13,", ",E13,"), ")</f>
+        <v xml:space="preserve">new Vector2(0, 0), </v>
+      </c>
+      <c r="G13" s="8">
+        <f>ROUND($K$2,)</f>
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <f>K3+M4</f>
+        <v>123.57142857142857</v>
+      </c>
+      <c r="I13" s="8">
+        <f>ROUND(H13,0)</f>
+        <v>124</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="8" t="str">
+        <f>CONCATENATE("new Point(",J13,", ",K13,"), ")</f>
+        <v xml:space="preserve">new Point(0, 0), </v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>-4</v>
+      </c>
+      <c r="P13" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",N13,", ",O13,"), ")</f>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="9" t="str">
+        <f>CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",B13,", ",F13,G13,", ",I13,", ","'",L13,"', ",M13,P13,"'",Q13,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(0, new Vector2(0, 0), 67, 124, 'v', new Point(0, 0), new Vector2(1, -4), 'c'));</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" ref="X13" si="0">Y13+1</f>
+        <v>41</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" ref="Y13" si="1">Z13+1</f>
+        <v>40</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" ref="Z13" si="2">AA13+1</f>
+        <v>39</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" ref="AA13" si="3">AB13+1</f>
+        <v>38</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" ref="AB13" si="4">AC13+1</f>
+        <v>37</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" ref="AC13" si="5">AD13+1</f>
+        <v>36</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" ref="AD13:AH13" si="6">AE13+1</f>
+        <v>35</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AI13" s="2">
+        <f>AJ13+1</f>
+        <v>30</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" ref="AJ13:AJ19" si="7">AJ14+1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <f>B13+1</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>C13+$K$2</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>ROUND(C14,0)</f>
+        <v>67</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="shared" ref="F14:F21" si="8">CONCATENATE("new Vector2(",D14,", ",E14,"), ")</f>
+        <v xml:space="preserve">new Vector2(0, 67), </v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:G21" si="9">ROUND($K$2,)</f>
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <f>H13+$I$11</f>
+        <v>117.46031746031746</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" ref="I14:I21" si="10">ROUND(H14,0)</f>
+        <v>117</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="8" t="str">
+        <f>CONCATENATE("new Point(",J14,", ",K14,"), ")</f>
+        <v xml:space="preserve">new Point(0, 1), </v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>-4</v>
+      </c>
+      <c r="P14" s="8" t="str">
+        <f t="shared" ref="P14:P21" si="11">CONCATENATE("new Vector2(",N14,", ",O14,"), ")</f>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="9" t="str">
+        <f t="shared" ref="R14:R21" si="12">CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",B14,", ",F14,G14,", ",I14,", ","'",L14,"', ",M14,P14,"'",Q14,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(1, new Vector2(0, 67), 67, 117, 'v', new Point(0, 1), new Vector2(1, -4), 's'));</v>
+      </c>
+      <c r="W14" s="2">
+        <f>W13+1</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C21" si="13">C14+$K$2</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E21" si="14">ROUND(C15,0)</f>
+        <v>133</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(0, 133), </v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="H15">
+        <f>H14+$I$11</f>
+        <v>111.34920634920634</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="8" t="str">
+        <f>CONCATENATE("new Point(",J15,", ",K15,"), ")</f>
+        <v xml:space="preserve">new Point(0, 2), </v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>-4</v>
+      </c>
+      <c r="P15" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(1, new Vector2(0, 133), 67, 111, 'v', new Point(0, 2), new Vector2(1, -4), 'c'));</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" ref="W15:W21" si="15">W14+1</f>
+        <v>2</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="1">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <f t="shared" ref="B16:B21" si="16">B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(0, 200), </v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <f>H15+$I$11</f>
+        <v>105.23809523809523</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="8" t="str">
+        <f>CONCATENATE("new Point(",J16,", ",K16,"), ")</f>
+        <v xml:space="preserve">new Point(0, 3), </v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>-4</v>
+      </c>
+      <c r="P16" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(2, new Vector2(0, 200), 67, 105, 'v', new Point(0, 3), new Vector2(1, -4), 'c'));</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="1">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="13"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="14"/>
+        <v>267</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(0, 267), </v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <f>H16+$I$11</f>
+        <v>99.126984126984112</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="8" t="str">
+        <f>CONCATENATE("new Point(",J17,", ",K17,"), ")</f>
+        <v xml:space="preserve">new Point(0, 4), </v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(2, new Vector2(0, 267), 67, 99, 'v', new Point(0, 4), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="1">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <f t="shared" ref="B18:B21" si="17">B17+1</f>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="13"/>
+        <v>333.33333333333337</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="14"/>
+        <v>333</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(0, 333), </v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <f>H17+$I$11</f>
+        <v>93.015873015872998</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="8" t="str">
+        <f>CONCATENATE("new Point(",J18,", ",K18,"), ")</f>
+        <v xml:space="preserve">new Point(0, 5), </v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(3, new Vector2(0, 333), 67, 93, 'v', new Point(0, 5), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W18" s="1">
+        <f>W17+1</f>
+        <v>5</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="1">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="13"/>
+        <v>400.00000000000006</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(0, 400), </v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="H19">
+        <f>H18+$I$11</f>
+        <v>86.904761904761884</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="8" t="str">
+        <f>CONCATENATE("new Point(",J19,", ",K19,"), ")</f>
+        <v xml:space="preserve">new Point(0, 6), </v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(3, new Vector2(0, 400), 67, 87, 'v', new Point(0, 6), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="1">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <f t="shared" ref="B20:B21" si="18">B19+1</f>
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="13"/>
+        <v>466.66666666666674</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="14"/>
+        <v>467</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(0, 467), </v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="H20">
+        <f>H19+$I$11</f>
+        <v>80.79365079365077</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="8" t="str">
+        <f>CONCATENATE("new Point(",J20,", ",K20,"), ")</f>
+        <v xml:space="preserve">new Point(0, 7), </v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(4, new Vector2(0, 467), 67, 81, 'v', new Point(0, 7), new Vector2(1, 4), 's'));</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2">
+        <f>AJ21+1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="13"/>
+        <v>533.33333333333337</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="14"/>
+        <v>533</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">new Vector2(0, 533), </v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="H21">
+        <f>$K$3</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="8" t="str">
+        <f>CONCATENATE("new Point(",J21,", ",K21,"), ")</f>
+        <v xml:space="preserve">new Point(0, 8), </v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(4, new Vector2(0, 533), 67, 69, 'v', new Point(0, 8), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="X21" s="2">
+        <f>W21+1</f>
+        <v>9</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" ref="Y21:AC21" si="19">X21+1</f>
+        <v>10</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" ref="AD21" si="20">AC21+1</f>
+        <v>15</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" ref="AE21" si="21">AD21+1</f>
+        <v>16</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" ref="AF21" si="22">AE21+1</f>
+        <v>17</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" ref="AG21" si="23">AF21+1</f>
+        <v>18</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" ref="AH21" si="24">AG21+1</f>
+        <v>19</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" ref="AI21" si="25">AH21+1</f>
+        <v>20</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" ref="AJ21" si="26">AI21+1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
+        <v>5</v>
+      </c>
+      <c r="AC27">
+        <v>6</v>
+      </c>
+      <c r="AD27">
+        <v>7</v>
+      </c>
+      <c r="AE27">
+        <v>8</v>
+      </c>
+      <c r="AF27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>10</v>
+      </c>
+      <c r="AH27">
+        <v>11</v>
+      </c>
+      <c r="AI27">
+        <v>12</v>
+      </c>
+      <c r="AJ27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7">
+        <f>W28+$K$3</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="Y28" s="7">
+        <f t="shared" ref="Y28:AJ28" si="27">X28+$K$3</f>
+        <v>137.14285714285714</v>
+      </c>
+      <c r="Z28" s="7">
+        <f t="shared" si="27"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="27"/>
+        <v>274.28571428571428</v>
+      </c>
+      <c r="AB28" s="7">
+        <f t="shared" si="27"/>
+        <v>342.85714285714283</v>
+      </c>
+      <c r="AC28" s="7">
+        <f t="shared" si="27"/>
+        <v>411.42857142857139</v>
+      </c>
+      <c r="AD28" s="7">
+        <f t="shared" si="27"/>
+        <v>479.99999999999994</v>
+      </c>
+      <c r="AE28" s="7">
+        <f t="shared" si="27"/>
+        <v>548.57142857142856</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="27"/>
+        <v>617.14285714285711</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" si="27"/>
+        <v>685.71428571428567</v>
+      </c>
+      <c r="AH28" s="7">
+        <f t="shared" si="27"/>
+        <v>754.28571428571422</v>
+      </c>
+      <c r="AI28" s="7">
+        <f t="shared" si="27"/>
+        <v>822.85714285714278</v>
+      </c>
+      <c r="AJ28" s="7">
+        <f t="shared" si="27"/>
+        <v>891.42857142857133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="V29" t="s">
+        <v>139</v>
+      </c>
+      <c r="W29">
+        <f>ROUND(W28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ref="X29:AJ29" si="28">ROUND(X28,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="28"/>
+        <v>137</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="28"/>
+        <v>206</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="28"/>
+        <v>274</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="28"/>
+        <v>343</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="28"/>
+        <v>411</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="28"/>
+        <v>480</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="28"/>
+        <v>549</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="28"/>
+        <v>617</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="28"/>
+        <v>686</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="28"/>
+        <v>754</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="28"/>
+        <v>823</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="28"/>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>140</v>
+      </c>
+      <c r="W30">
+        <f>ROUND($K$2,0)</f>
+        <v>67</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ref="X30:AJ30" si="29">ROUND($K$2,0)</f>
+        <v>67</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>141</v>
+      </c>
+      <c r="W31">
+        <f>ROUND($K$3,0)</f>
+        <v>69</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ref="X31:AJ31" si="30">ROUND($K$3,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="30"/>
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CP 1/Libro1.xlsx
+++ b/CP 1/Libro1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jossa\Documents\Arduino\CP1-1\CP 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jom\Documents\Desarrollos\Github\CP1-1\CP 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="154">
   <si>
     <t>Ancho</t>
   </si>
@@ -450,9 +450,6 @@
     <t>redondeado</t>
   </si>
   <si>
-    <t>alto</t>
-  </si>
-  <si>
     <t>ancho</t>
   </si>
   <si>
@@ -465,9 +462,6 @@
     <t>ancho bruto</t>
   </si>
   <si>
-    <t>horientacion</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -475,6 +469,27 @@
   </si>
   <si>
     <t>arranque</t>
+  </si>
+  <si>
+    <t>padd</t>
+  </si>
+  <si>
+    <t>pxf</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Horientacion</t>
+  </si>
+  <si>
+    <t>Posicion</t>
+  </si>
+  <si>
+    <t>Arranque</t>
   </si>
 </sst>
 </file>
@@ -540,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -561,6 +576,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,13 +601,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5725,10 +5742,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AJ31"/>
+  <dimension ref="B4:AZ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5742,1227 +5759,3217 @@
     <col min="32" max="32" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="K1" t="s">
+    <row r="4" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="X4" s="9" t="str">
+        <f>CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",X19,", ",X15,X14,", ",X13,", ","'",X12,"', ",X9,X6,"'",X5,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(41, new Vector2(69, 0), 67, 69, 'h', new Point(1, 0), new Vector2(-4, 1), 's'));</v>
+      </c>
+      <c r="Y4" s="9" t="str">
+        <f t="shared" ref="Y4:AI4" si="0">CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",Y19,", ",Y15,Y14,", ",Y13,", ","'",Y12,"', ",Y9,Y6,"'",Y5,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(40, new Vector2(137, 0), 67, 69, 'h', new Point(2, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+      <c r="Z4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(39, new Vector2(206, 0), 67, 69, 'h', new Point(3, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+      <c r="AA4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(38, new Vector2(274, 0), 67, 69, 'h', new Point(4, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+      <c r="AB4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(37, new Vector2(343, 0), 67, 69, 'h', new Point(5, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+      <c r="AC4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(36, new Vector2(411, 0), 67, 69, 'h', new Point(6, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+      <c r="AD4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(35, new Vector2(480, 0), 67, 69, 'h', new Point(7, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+      <c r="AE4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(34, new Vector2(549, 0), 67, 69, 'h', new Point(8, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+      <c r="AF4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(33, new Vector2(617, 0), 67, 69, 'h', new Point(9, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+      <c r="AG4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(32, new Vector2(686, 0), 67, 69, 'h', new Point(10, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+      <c r="AH4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(31, new Vector2(754, 0), 67, 69, 'h', new Point(11, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+      <c r="AI4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(30, new Vector2(823, 0), 67, 69, 'h', new Point(12, 0), new Vector2(4, 1), 's'));</v>
+      </c>
+    </row>
+    <row r="5" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>150</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="X6" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",X8,", ",X7,"), ")</f>
+        <v xml:space="preserve">new Vector2(-4, 1), </v>
+      </c>
+      <c r="Y6" s="8" t="str">
+        <f t="shared" ref="Y6:AI6" si="1">CONCATENATE("new Vector2(",Y8,", ",Y7,"), ")</f>
+        <v xml:space="preserve">new Vector2(-4, 1), </v>
+      </c>
+      <c r="Z6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(-4, 1), </v>
+      </c>
+      <c r="AA6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(-4, 1), </v>
+      </c>
+      <c r="AB6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(-4, 1), </v>
+      </c>
+      <c r="AC6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(-4, 1), </v>
+      </c>
+      <c r="AD6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(4, 1), </v>
+      </c>
+      <c r="AE6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(4, 1), </v>
+      </c>
+      <c r="AF6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(4, 1), </v>
+      </c>
+      <c r="AG6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(4, 1), </v>
+      </c>
+      <c r="AH6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(4, 1), </v>
+      </c>
+      <c r="AI6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">new Vector2(4, 1), </v>
+      </c>
+    </row>
+    <row r="7" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>146</v>
+      </c>
+      <c r="X8">
+        <v>-4</v>
+      </c>
+      <c r="Y8">
+        <v>-4</v>
+      </c>
+      <c r="Z8">
+        <v>-4</v>
+      </c>
+      <c r="AA8">
+        <v>-4</v>
+      </c>
+      <c r="AB8">
+        <v>-4</v>
+      </c>
+      <c r="AC8">
+        <v>-4</v>
+      </c>
+      <c r="AD8">
+        <v>4</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="X9" s="8" t="str">
+        <f>CONCATENATE("new Point(",X11,", ",X10,"), ")</f>
+        <v xml:space="preserve">new Point(1, 0), </v>
+      </c>
+      <c r="Y9" s="8" t="str">
+        <f t="shared" ref="Y9:AI9" si="2">CONCATENATE("new Point(",Y11,", ",Y10,"), ")</f>
+        <v xml:space="preserve">new Point(2, 0), </v>
+      </c>
+      <c r="Z9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(3, 0), </v>
+      </c>
+      <c r="AA9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(4, 0), </v>
+      </c>
+      <c r="AB9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(5, 0), </v>
+      </c>
+      <c r="AC9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(6, 0), </v>
+      </c>
+      <c r="AD9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(7, 0), </v>
+      </c>
+      <c r="AE9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(8, 0), </v>
+      </c>
+      <c r="AF9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(9, 0), </v>
+      </c>
+      <c r="AG9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(10, 0), </v>
+      </c>
+      <c r="AH9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(11, 0), </v>
+      </c>
+      <c r="AI9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">new Point(12, 0), </v>
+      </c>
+    </row>
+    <row r="10" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="W10" s="4"/>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4"/>
+    </row>
+    <row r="11" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>141</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Z11">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>7</v>
+      </c>
+      <c r="AE11">
+        <v>8</v>
+      </c>
+      <c r="AF11">
+        <v>9</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>11</v>
+      </c>
+      <c r="AI11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>151</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Y13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Z13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AA13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AB13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AC13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AD13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AE13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AF13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AG13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AH13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AI13" s="8">
+        <f>ROUND($P$16,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AJ13" s="8"/>
+    </row>
+    <row r="14" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" t="s">
+        <v>148</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="X14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="Y14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="Z14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AA14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AB14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AC14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AD14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AE14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AF14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AG14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AH14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AI14" s="8">
+        <f>ROUND($P$15,0)</f>
+        <v>67</v>
+      </c>
+      <c r="AJ14" s="8"/>
+    </row>
+    <row r="15" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>600</v>
       </c>
-      <c r="K2">
-        <f>J2/L2</f>
+      <c r="P15">
+        <f>O15/S15</f>
         <v>66.666666666666671</v>
       </c>
-      <c r="L2">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>Q15+P15</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="S15">
         <v>9</v>
       </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+      <c r="X15" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",X17,", ",X16,"), ")</f>
+        <v xml:space="preserve">new Vector2(69, 0), </v>
+      </c>
+      <c r="Y15" s="8" t="str">
+        <f t="shared" ref="Y15:AJ15" si="3">CONCATENATE("new Vector2(",Y17,", ",Y16,"), ")</f>
+        <v xml:space="preserve">new Vector2(137, 0), </v>
+      </c>
+      <c r="Z15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(206, 0), </v>
+      </c>
+      <c r="AA15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(274, 0), </v>
+      </c>
+      <c r="AB15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(343, 0), </v>
+      </c>
+      <c r="AC15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(411, 0), </v>
+      </c>
+      <c r="AD15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(480, 0), </v>
+      </c>
+      <c r="AE15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(549, 0), </v>
+      </c>
+      <c r="AF15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(617, 0), </v>
+      </c>
+      <c r="AG15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(686, 0), </v>
+      </c>
+      <c r="AH15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(754, 0), </v>
+      </c>
+      <c r="AI15" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">new Vector2(823, 0), </v>
+      </c>
+      <c r="AJ15" s="8"/>
+    </row>
+    <row r="16" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="O16">
         <v>960</v>
       </c>
-      <c r="K3">
-        <f>J3/L3</f>
+      <c r="P16">
+        <f>O16/S16</f>
         <v>68.571428571428569</v>
       </c>
-      <c r="L3">
+      <c r="Q16">
+        <v>25</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16:R17" si="4">Q16+P16</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="S16">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4">
-        <v>850</v>
-      </c>
-      <c r="K4">
-        <f>J4/L4</f>
-        <v>60.714285714285715</v>
-      </c>
-      <c r="L4">
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17">
+        <v>960</v>
+      </c>
+      <c r="P17">
+        <f>O17/S17</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="S17">
         <v>14</v>
       </c>
-      <c r="M4">
-        <f>(J3-J4)/2</f>
-        <v>55</v>
-      </c>
-      <c r="R4" t="str">
-        <f>R13</f>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(0, new Vector2(0, 0), 67, 124, 'v', new Point(0, 0), new Vector2(1, -4), 'c'));</v>
-      </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <f>(H21-H13)/L2</f>
-        <v>-6.1111111111111107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="T17">
+        <f>(R16-R17)/2</f>
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>139</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f>ROUND(X18,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ref="Y17:AJ17" si="5">ROUND(Y18,0)</f>
+        <v>137</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>411</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="5"/>
+        <v>549</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="5"/>
+        <v>617</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="5"/>
+        <v>686</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="5"/>
+        <v>754</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="5"/>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="18" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
         <v>138</v>
       </c>
-      <c r="D12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="W18">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="X18">
+        <f>W18+$P$16</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="Y18">
+        <f>X18+$P$16</f>
+        <v>137.14285714285714</v>
+      </c>
+      <c r="Z18">
+        <f>Y18+$P$16</f>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="AA18">
+        <f>Z18+$P$16</f>
+        <v>274.28571428571428</v>
+      </c>
+      <c r="AB18">
+        <f>AA18+$P$16</f>
+        <v>342.85714285714283</v>
+      </c>
+      <c r="AC18">
+        <f>AB18+$P$16</f>
+        <v>411.42857142857139</v>
+      </c>
+      <c r="AD18">
+        <f>AC18+$P$16</f>
+        <v>479.99999999999994</v>
+      </c>
+      <c r="AE18">
+        <f>AD18+$P$16</f>
+        <v>548.57142857142856</v>
+      </c>
+      <c r="AF18">
+        <f>AE18+$P$16</f>
+        <v>617.14285714285711</v>
+      </c>
+      <c r="AG18">
+        <f>AF18+$P$16</f>
+        <v>685.71428571428567</v>
+      </c>
+      <c r="AH18">
+        <f>AG18+$P$16</f>
+        <v>754.28571428571422</v>
+      </c>
+      <c r="AI18">
+        <f>AH18+$P$16</f>
+        <v>822.85714285714278</v>
+      </c>
+      <c r="AJ18">
+        <f>AI18+$P$16</f>
+        <v>891.42857142857133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f>(H29-H21)/S15</f>
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>D13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="str">
-        <f>CONCATENATE("new Vector2(",D13,", ",E13,"), ")</f>
-        <v xml:space="preserve">new Vector2(0, 0), </v>
-      </c>
-      <c r="G13" s="8">
-        <f>ROUND($K$2,)</f>
-        <v>67</v>
-      </c>
-      <c r="H13">
-        <f>K3+M4</f>
-        <v>123.57142857142857</v>
-      </c>
-      <c r="I13" s="8">
-        <f>ROUND(H13,0)</f>
-        <v>124</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="8" t="str">
-        <f>CONCATENATE("new Point(",J13,", ",K13,"), ")</f>
-        <v xml:space="preserve">new Point(0, 0), </v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>-4</v>
-      </c>
-      <c r="P13" s="8" t="str">
-        <f>CONCATENATE("new Vector2(",N13,", ",O13,"), ")</f>
-        <v xml:space="preserve">new Vector2(1, -4), </v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="9" t="str">
-        <f>CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",B13,", ",F13,G13,", ",I13,", ","'",L13,"', ",M13,P13,"'",Q13,"'));")</f>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(0, new Vector2(0, 0), 67, 124, 'v', new Point(0, 0), new Vector2(1, -4), 'c'));</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" ref="X13" si="0">Y13+1</f>
+      <c r="V19" t="s">
+        <v>149</v>
+      </c>
+      <c r="X19" s="8">
+        <f>X21</f>
         <v>41</v>
       </c>
-      <c r="Y13" s="1">
-        <f t="shared" ref="Y13" si="1">Z13+1</f>
+      <c r="Y19" s="8">
+        <f t="shared" ref="Y19:AI19" si="6">Y21</f>
         <v>40</v>
       </c>
-      <c r="Z13" s="1">
-        <f t="shared" ref="Z13" si="2">AA13+1</f>
+      <c r="Z19" s="8">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="AA13" s="1">
-        <f t="shared" ref="AA13" si="3">AB13+1</f>
+      <c r="AA19" s="8">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="AB13" s="1">
-        <f t="shared" ref="AB13" si="4">AC13+1</f>
+      <c r="AB19" s="8">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="AC13" s="1">
-        <f t="shared" ref="AC13" si="5">AD13+1</f>
+      <c r="AC19" s="8">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="AD13" s="1">
-        <f t="shared" ref="AD13:AH13" si="6">AE13+1</f>
+      <c r="AD19" s="8">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE19" s="8">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF19" s="8">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG19" s="8">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH19" s="8">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="AI13" s="2">
-        <f>AJ13+1</f>
+      <c r="AI19" s="8">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AJ13" s="1">
-        <f t="shared" ref="AJ13:AJ19" si="7">AJ14+1</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <f>B13+1</f>
+      <c r="AL19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
-        <f>C13+$K$2</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="D14">
+      <c r="H20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" t="s">
         <v>0</v>
       </c>
-      <c r="E14">
-        <f>ROUND(C14,0)</f>
-        <v>67</v>
-      </c>
-      <c r="F14" s="8" t="str">
-        <f t="shared" ref="F14:F21" si="8">CONCATENATE("new Vector2(",D14,", ",E14,"), ")</f>
-        <v xml:space="preserve">new Vector2(0, 67), </v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" ref="G14:G21" si="9">ROUND($K$2,)</f>
-        <v>67</v>
-      </c>
-      <c r="H14">
-        <f>H13+$I$11</f>
-        <v>117.46031746031746</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" ref="I14:I21" si="10">ROUND(H14,0)</f>
-        <v>117</v>
-      </c>
-      <c r="J14">
+      <c r="J20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="8" t="str">
-        <f>CONCATENATE("new Point(",J14,", ",K14,"), ")</f>
-        <v xml:space="preserve">new Point(0, 1), </v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>-4</v>
-      </c>
-      <c r="P14" s="8" t="str">
-        <f t="shared" ref="P14:P21" si="11">CONCATENATE("new Vector2(",N14,", ",O14,"), ")</f>
-        <v xml:space="preserve">new Vector2(1, -4), </v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="R14" s="9" t="str">
-        <f t="shared" ref="R14:R21" si="12">CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",B14,", ",F14,G14,", ",I14,", ","'",L14,"', ",M14,P14,"'",Q14,"'));")</f>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(1, new Vector2(0, 67), 67, 117, 'v', new Point(0, 1), new Vector2(1, -4), 's'));</v>
-      </c>
-      <c r="W14" s="2">
-        <f>W13+1</f>
-        <v>1</v>
-      </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:C21" si="13">C14+$K$2</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="D15">
+      <c r="C21">
         <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ref="E15:E21" si="14">ROUND(C15,0)</f>
-        <v>133</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">new Vector2(0, 133), </v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="H15">
-        <f>H14+$I$11</f>
-        <v>111.34920634920634</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="8" t="str">
-        <f>CONCATENATE("new Point(",J15,", ",K15,"), ")</f>
-        <v xml:space="preserve">new Point(0, 2), </v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>-4</v>
-      </c>
-      <c r="P15" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">new Vector2(1, -4), </v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="R15" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(1, new Vector2(0, 133), 67, 111, 'v', new Point(0, 2), new Vector2(1, -4), 'c'));</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" ref="W15:W21" si="15">W14+1</f>
-        <v>2</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="1">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <f t="shared" ref="B16:B21" si="16">B15+1</f>
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="13"/>
-        <v>200</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="14"/>
-        <v>200</v>
-      </c>
-      <c r="F16" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">new Vector2(0, 200), </v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="H16">
-        <f>H15+$I$11</f>
-        <v>105.23809523809523</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="8" t="str">
-        <f>CONCATENATE("new Point(",J16,", ",K16,"), ")</f>
-        <v xml:space="preserve">new Point(0, 3), </v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>-4</v>
-      </c>
-      <c r="P16" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">new Vector2(1, -4), </v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(2, new Vector2(0, 200), 67, 105, 'v', new Point(0, 3), new Vector2(1, -4), 'c'));</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="1">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="13"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="14"/>
-        <v>267</v>
-      </c>
-      <c r="F17" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">new Vector2(0, 267), </v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="H17">
-        <f>H16+$I$11</f>
-        <v>99.126984126984112</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="8" t="str">
-        <f>CONCATENATE("new Point(",J17,", ",K17,"), ")</f>
-        <v xml:space="preserve">new Point(0, 4), </v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">new Vector2(1, 4), </v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(2, new Vector2(0, 267), 67, 99, 'v', new Point(0, 4), new Vector2(1, 4), 'c'));</v>
-      </c>
-      <c r="W17" s="1">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="1">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <f t="shared" ref="B18:B21" si="17">B17+1</f>
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="13"/>
-        <v>333.33333333333337</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="14"/>
-        <v>333</v>
-      </c>
-      <c r="F18" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">new Vector2(0, 333), </v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="H18">
-        <f>H17+$I$11</f>
-        <v>93.015873015872998</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="8" t="str">
-        <f>CONCATENATE("new Point(",J18,", ",K18,"), ")</f>
-        <v xml:space="preserve">new Point(0, 5), </v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">new Vector2(1, 4), </v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="R18" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(3, new Vector2(0, 333), 67, 93, 'v', new Point(0, 5), new Vector2(1, 4), 'c'));</v>
-      </c>
-      <c r="W18" s="1">
-        <f>W17+1</f>
-        <v>5</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="13"/>
-        <v>400.00000000000006</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="14"/>
-        <v>400</v>
-      </c>
-      <c r="F19" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">new Vector2(0, 400), </v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="H19">
-        <f>H18+$I$11</f>
-        <v>86.904761904761884</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="10"/>
-        <v>87</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="8" t="str">
-        <f>CONCATENATE("new Point(",J19,", ",K19,"), ")</f>
-        <v xml:space="preserve">new Point(0, 6), </v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">new Vector2(1, 4), </v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(3, new Vector2(0, 400), 67, 87, 'v', new Point(0, 6), new Vector2(1, 4), 'c'));</v>
-      </c>
-      <c r="W19" s="1">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="1">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <f t="shared" ref="B20:B21" si="18">B19+1</f>
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="13"/>
-        <v>466.66666666666674</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="14"/>
-        <v>467</v>
-      </c>
-      <c r="F20" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">new Vector2(0, 467), </v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="H20">
-        <f>H19+$I$11</f>
-        <v>80.79365079365077</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="10"/>
-        <v>81</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="8" t="str">
-        <f>CONCATENATE("new Point(",J20,", ",K20,"), ")</f>
-        <v xml:space="preserve">new Point(0, 7), </v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">new Vector2(1, 4), </v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="R20" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(4, new Vector2(0, 467), 67, 81, 'v', new Point(0, 7), new Vector2(1, 4), 's'));</v>
-      </c>
-      <c r="W20" s="2">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2">
-        <f>AJ21+1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="13"/>
-        <v>533.33333333333337</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="14"/>
-        <v>533</v>
+        <f>D21</f>
+        <v>0</v>
       </c>
       <c r="F21" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">new Vector2(0, 533), </v>
+        <f>CONCATENATE("new Vector2(",D21,", ",E21,"), ")</f>
+        <v xml:space="preserve">new Vector2(0, 0), </v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="9"/>
+        <f>ROUND($R$15,)</f>
         <v>67</v>
       </c>
       <c r="H21">
-        <f>$K$3</f>
-        <v>68.571428571428569</v>
+        <f>R16+T17</f>
+        <v>93.571428571428569</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="10"/>
-        <v>69</v>
+        <f>ROUND(H21,0)</f>
+        <v>94</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>67</v>
       </c>
       <c r="M21" s="8" t="str">
-        <f>CONCATENATE("new Point(",J21,", ",K21,"), ")</f>
-        <v xml:space="preserve">new Point(0, 8), </v>
+        <f t="shared" ref="M21:M29" si="7">CONCATENATE("new Point(",J21,", ",K21,"), ")</f>
+        <v xml:space="preserve">new Point(0, 0), </v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="P21" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">new Vector2(1, 4), </v>
+        <f>CONCATENATE("new Vector2(",N21,", ",O21,"), ")</f>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
       </c>
       <c r="Q21" s="8" t="s">
         <v>88</v>
       </c>
       <c r="R21" s="9" t="str">
-        <f t="shared" si="12"/>
-        <v>CP_1.Game1.listaCasas.Add(new Casas2(4, new Vector2(0, 533), 67, 69, 'v', new Point(0, 8), new Vector2(1, 4), 'c'));</v>
+        <f>CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",B21,", ",F21,G21,", ",I21,", ","'",L21,"', ",M21,P21,"'",Q21,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(0, new Vector2(0, 0), 67, 94, 'v', new Point(0, 0), new Vector2(1, -4), 'c'));</v>
       </c>
       <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" ref="X21" si="8">Y21+1</f>
+        <v>41</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" ref="Y21" si="9">Z21+1</f>
+        <v>40</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" ref="Z21" si="10">AA21+1</f>
+        <v>39</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" ref="AA21" si="11">AB21+1</f>
+        <v>38</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" ref="AB21" si="12">AC21+1</f>
+        <v>37</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" ref="AC21" si="13">AD21+1</f>
+        <v>36</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" ref="AD21:AH21" si="14">AE21+1</f>
+        <v>35</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="AG21" s="1">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="AI21" s="2">
+        <f>AJ21+1</f>
+        <v>30</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" ref="AJ21:AJ27" si="15">AJ22+1</f>
+        <v>29</v>
+      </c>
+      <c r="AL21" s="8">
+        <f>AJ21</f>
+        <v>29</v>
+      </c>
+      <c r="AM21">
+        <f>ROUND($AJ$18,0)</f>
+        <v>891</v>
+      </c>
+      <c r="AN21">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",AM21,", ",AN21,"), ")</f>
+        <v xml:space="preserve">new Vector2(891, 0), </v>
+      </c>
+      <c r="AP21" s="8">
+        <f>G21</f>
+        <v>67</v>
+      </c>
+      <c r="AQ21" s="8">
+        <f>I21</f>
+        <v>94</v>
+      </c>
+      <c r="AR21" s="8" t="str">
+        <f>L21</f>
+        <v>v</v>
+      </c>
+      <c r="AS21">
+        <f>$AJ$39</f>
+        <v>13</v>
+      </c>
+      <c r="AT21">
+        <f>K21</f>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="8" t="str">
+        <f>CONCATENATE("new Point(",AS21,", ",AT21,"), ")</f>
+        <v xml:space="preserve">new Point(13, 0), </v>
+      </c>
+      <c r="AV21">
+        <v>-1</v>
+      </c>
+      <c r="AW21">
+        <f>O21</f>
+        <v>-4</v>
+      </c>
+      <c r="AX21" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",AV21,", ",AW21,"), ")</f>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AY21" s="8" t="str">
+        <f>Q21</f>
+        <v>c</v>
+      </c>
+      <c r="AZ21" s="9" t="str">
+        <f>CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",AL21,", ",AO21,AP21,", ",AQ21,", ","'",AR21,"', ",AU21,AX21,"'",AY21,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(29, new Vector2(891, 0), 67, 94, 'v', new Point(13, 0), new Vector2(-1, -4), 'c'));</v>
+      </c>
+    </row>
+    <row r="22" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <f>B21+1</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>C21+$R$15</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>ROUND(C22,0)</f>
+        <v>67</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="shared" ref="F22:F29" si="16">CONCATENATE("new Vector2(",D22,", ",E22,"), ")</f>
+        <v xml:space="preserve">new Vector2(0, 67), </v>
+      </c>
+      <c r="G22" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <f>H21+$I$19</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" ref="I22:I29" si="17">ROUND(H22,0)</f>
+        <v>94</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 1), </v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>-4</v>
+      </c>
+      <c r="P22" s="8" t="str">
+        <f t="shared" ref="P22:P29" si="18">CONCATENATE("new Vector2(",N22,", ",O22,"), ")</f>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="9" t="str">
+        <f t="shared" ref="R22:R29" si="19">CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",B22,", ",F22,G22,", ",I22,", ","'",L22,"', ",M22,P22,"'",Q22,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(1, new Vector2(0, 67), 67, 94, 'v', new Point(0, 1), new Vector2(1, -4), 's'));</v>
+      </c>
+      <c r="W22" s="2">
+        <f>W21+1</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2">
         <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="AL22" s="8">
+        <f t="shared" ref="AL22:AL29" si="20">AJ22</f>
+        <v>28</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" ref="AM22:AM28" si="21">ROUND($AJ$18,0)</f>
+        <v>891</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" ref="AN22:AN28" si="22">E22</f>
+        <v>67</v>
+      </c>
+      <c r="AO22" s="8" t="str">
+        <f t="shared" ref="AO22:AO28" si="23">CONCATENATE("new Vector2(",AM22,", ",AN22,"), ")</f>
+        <v xml:space="preserve">new Vector2(891, 67), </v>
+      </c>
+      <c r="AP22" s="8">
+        <f t="shared" ref="AP22:AP28" si="24">G22</f>
+        <v>67</v>
+      </c>
+      <c r="AQ22" s="8">
+        <f t="shared" ref="AQ22:AQ28" si="25">I22</f>
+        <v>94</v>
+      </c>
+      <c r="AR22" s="8" t="str">
+        <f t="shared" ref="AR22:AR28" si="26">L22</f>
+        <v>v</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" ref="AS22:AS28" si="27">$AJ$39</f>
+        <v>13</v>
+      </c>
+      <c r="AT22">
+        <f>K22</f>
+        <v>1</v>
+      </c>
+      <c r="AU22" s="8" t="str">
+        <f t="shared" ref="AU22:AU28" si="28">CONCATENATE("new Point(",AS22,", ",AT22,"), ")</f>
+        <v xml:space="preserve">new Point(13, 1), </v>
+      </c>
+      <c r="AV22">
+        <v>-1</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" ref="AW22:AW28" si="29">O22</f>
+        <v>-4</v>
+      </c>
+      <c r="AX22" s="8" t="str">
+        <f t="shared" ref="AX22:AX28" si="30">CONCATENATE("new Vector2(",AV22,", ",AW22,"), ")</f>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AY22" s="8" t="str">
+        <f>Q22</f>
+        <v>s</v>
+      </c>
+      <c r="AZ22" s="9" t="str">
+        <f t="shared" ref="AZ22:AZ28" si="31">CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",AL22,", ",AO22,AP22,", ",AQ22,", ","'",AR22,"', ",AU22,AX22,"'",AY22,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(28, new Vector2(891, 67), 67, 94, 'v', new Point(13, 1), new Vector2(-1, -4), 's'));</v>
+      </c>
+    </row>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:B29" si="32">B22+1</f>
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f>C22+$R$15</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E29" si="33">ROUND(C23,0)</f>
+        <v>133</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">new Vector2(0, 133), </v>
+      </c>
+      <c r="G23" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H23">
+        <f>H22+$I$19</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 2), </v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>-4</v>
+      </c>
+      <c r="P23" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(2, new Vector2(0, 133), 67, 94, 'v', new Point(0, 2), new Vector2(1, -4), 'c'));</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23:W29" si="34">W22+1</f>
+        <v>2</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="1">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="AL23" s="8">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="21"/>
+        <v>891</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="22"/>
+        <v>133</v>
+      </c>
+      <c r="AO23" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">new Vector2(891, 133), </v>
+      </c>
+      <c r="AP23" s="8">
+        <f t="shared" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="AQ23" s="8">
+        <f t="shared" si="25"/>
+        <v>94</v>
+      </c>
+      <c r="AR23" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>v</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AT23">
+        <f>K23</f>
+        <v>2</v>
+      </c>
+      <c r="AU23" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">new Point(13, 2), </v>
+      </c>
+      <c r="AV23">
+        <v>-1</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="29"/>
+        <v>-4</v>
+      </c>
+      <c r="AX23" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AY23" s="8" t="str">
+        <f>Q23</f>
+        <v>c</v>
+      </c>
+      <c r="AZ23" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(27, new Vector2(891, 133), 67, 94, 'v', new Point(13, 2), new Vector2(-1, -4), 'c'));</v>
+      </c>
+    </row>
+    <row r="24" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f>C23+$R$15</f>
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="33"/>
+        <v>200</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">new Vector2(0, 200), </v>
+      </c>
+      <c r="G24" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <f>H23+$I$19</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 3), </v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>-4</v>
+      </c>
+      <c r="P24" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">new Vector2(1, -4), </v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(3, new Vector2(0, 200), 67, 94, 'v', new Point(0, 3), new Vector2(1, -4), 'c'));</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="1">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="AL24" s="8">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="21"/>
+        <v>891</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="22"/>
+        <v>200</v>
+      </c>
+      <c r="AO24" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">new Vector2(891, 200), </v>
+      </c>
+      <c r="AP24" s="8">
+        <f t="shared" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="AQ24" s="8">
+        <f t="shared" si="25"/>
+        <v>94</v>
+      </c>
+      <c r="AR24" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>v</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AT24">
+        <f>K24</f>
+        <v>3</v>
+      </c>
+      <c r="AU24" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">new Point(13, 3), </v>
+      </c>
+      <c r="AV24">
+        <v>-1</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="29"/>
+        <v>-4</v>
+      </c>
+      <c r="AX24" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AY24" s="8" t="str">
+        <f>Q24</f>
+        <v>c</v>
+      </c>
+      <c r="AZ24" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(26, new Vector2(891, 200), 67, 94, 'v', new Point(13, 3), new Vector2(-1, -4), 'c'));</v>
+      </c>
+    </row>
+    <row r="25" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f>C24+$R$15</f>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="33"/>
+        <v>267</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">new Vector2(0, 267), </v>
+      </c>
+      <c r="G25" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H25">
+        <f>H24+$I$19</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 4), </v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R25" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(4, new Vector2(0, 267), 67, 94, 'v', new Point(0, 4), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="1">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="AL25" s="8">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="21"/>
+        <v>891</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="22"/>
+        <v>267</v>
+      </c>
+      <c r="AO25" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">new Vector2(891, 267), </v>
+      </c>
+      <c r="AP25" s="8">
+        <f t="shared" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="AQ25" s="8">
+        <f t="shared" si="25"/>
+        <v>94</v>
+      </c>
+      <c r="AR25" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>v</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AT25">
+        <f>K25</f>
+        <v>4</v>
+      </c>
+      <c r="AU25" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">new Point(13, 4), </v>
+      </c>
+      <c r="AV25">
+        <v>-1</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="AX25" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AY25" s="8" t="str">
+        <f>Q25</f>
+        <v>c</v>
+      </c>
+      <c r="AZ25" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(25, new Vector2(891, 267), 67, 94, 'v', new Point(13, 4), new Vector2(-1, 4), 'c'));</v>
+      </c>
+    </row>
+    <row r="26" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <f>C25+$R$15</f>
+        <v>333.33333333333337</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="33"/>
+        <v>333</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">new Vector2(0, 333), </v>
+      </c>
+      <c r="G26" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H26">
+        <f>H25+$I$19</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 5), </v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(5, new Vector2(0, 333), 67, 94, 'v', new Point(0, 5), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W26" s="1">
+        <f>W25+1</f>
+        <v>5</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="1">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="AL26" s="8">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="21"/>
+        <v>891</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="22"/>
+        <v>333</v>
+      </c>
+      <c r="AO26" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">new Vector2(891, 333), </v>
+      </c>
+      <c r="AP26" s="8">
+        <f t="shared" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="AQ26" s="8">
+        <f t="shared" si="25"/>
+        <v>94</v>
+      </c>
+      <c r="AR26" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>v</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AT26">
+        <f>K26</f>
+        <v>5</v>
+      </c>
+      <c r="AU26" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">new Point(13, 5), </v>
+      </c>
+      <c r="AV26">
+        <v>-1</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="AX26" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AY26" s="8" t="str">
+        <f>Q26</f>
+        <v>c</v>
+      </c>
+      <c r="AZ26" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(24, new Vector2(891, 333), 67, 94, 'v', new Point(13, 5), new Vector2(-1, 4), 'c'));</v>
+      </c>
+    </row>
+    <row r="27" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <f>C26+$R$15</f>
+        <v>400.00000000000006</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="33"/>
+        <v>400</v>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">new Vector2(0, 400), </v>
+      </c>
+      <c r="G27" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H27">
+        <f>H26+$I$19</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M27" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 6), </v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(6, new Vector2(0, 400), 67, 94, 'v', new Point(0, 6), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="1">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="AL27" s="8">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="21"/>
+        <v>891</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="AO27" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">new Vector2(891, 400), </v>
+      </c>
+      <c r="AP27" s="8">
+        <f t="shared" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="AQ27" s="8">
+        <f t="shared" si="25"/>
+        <v>94</v>
+      </c>
+      <c r="AR27" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>v</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AT27">
+        <f>K27</f>
+        <v>6</v>
+      </c>
+      <c r="AU27" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">new Point(13, 6), </v>
+      </c>
+      <c r="AV27">
+        <v>-1</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="AX27" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AY27" s="8" t="str">
+        <f>Q27</f>
+        <v>c</v>
+      </c>
+      <c r="AZ27" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(23, new Vector2(891, 400), 67, 94, 'v', new Point(13, 6), new Vector2(-1, 4), 'c'));</v>
+      </c>
+    </row>
+    <row r="28" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <f>C27+$R$15</f>
+        <v>466.66666666666674</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>ROUND(C28,0)</f>
+        <v>467</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">new Vector2(0, 467), </v>
+      </c>
+      <c r="G28" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H28">
+        <f>H27+$I$19</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 7), </v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R28" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(7, new Vector2(0, 467), 67, 94, 'v', new Point(0, 7), new Vector2(1, 4), 's'));</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2">
+        <f>AJ29+1</f>
+        <v>22</v>
+      </c>
+      <c r="AL28" s="8">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="AM28">
+        <f t="shared" si="21"/>
+        <v>891</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="22"/>
+        <v>467</v>
+      </c>
+      <c r="AO28" s="8" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">new Vector2(891, 467), </v>
+      </c>
+      <c r="AP28" s="8">
+        <f t="shared" si="24"/>
+        <v>67</v>
+      </c>
+      <c r="AQ28" s="8">
+        <f t="shared" si="25"/>
+        <v>94</v>
+      </c>
+      <c r="AR28" s="8" t="str">
+        <f t="shared" si="26"/>
+        <v>v</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="AT28">
+        <f>K28</f>
+        <v>7</v>
+      </c>
+      <c r="AU28" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">new Point(13, 7), </v>
+      </c>
+      <c r="AV28">
+        <v>-1</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="AX28" s="8" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AY28" s="8" t="str">
+        <f>Q28</f>
+        <v>s</v>
+      </c>
+      <c r="AZ28" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(22, new Vector2(891, 467), 67, 94, 'v', new Point(13, 7), new Vector2(-1, 4), 's'));</v>
+      </c>
+    </row>
+    <row r="29" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
-      <c r="X21" s="2">
-        <f>W21+1</f>
+      <c r="C29">
+        <f>C28+$R$15</f>
+        <v>533.33333333333337</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="33"/>
+        <v>533</v>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">new Vector2(0, 533), </v>
+      </c>
+      <c r="G29" s="8">
+        <f>ROUND($R$15,)</f>
+        <v>67</v>
+      </c>
+      <c r="H29">
+        <f>$R$16</f>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">new Point(0, 8), </v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29" s="8" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">new Vector2(1, 4), </v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R29" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(8, new Vector2(0, 533), 67, 94, 'v', new Point(0, 8), new Vector2(1, 4), 'c'));</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="X29" s="2">
+        <f>W29+1</f>
         <v>9</v>
       </c>
-      <c r="Y21" s="1">
-        <f t="shared" ref="Y21:AC21" si="19">X21+1</f>
+      <c r="Y29" s="1">
+        <f t="shared" ref="Y29:AC29" si="35">X29+1</f>
         <v>10</v>
       </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="19"/>
+      <c r="Z29" s="1">
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
-      <c r="AA21" s="1">
-        <f t="shared" si="19"/>
+      <c r="AA29" s="1">
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="19"/>
+      <c r="AB29" s="1">
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
-      <c r="AC21" s="1">
-        <f t="shared" si="19"/>
+      <c r="AC29" s="1">
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
-      <c r="AD21" s="1">
-        <f t="shared" ref="AD21" si="20">AC21+1</f>
+      <c r="AD29" s="1">
+        <f t="shared" ref="AD29" si="36">AC29+1</f>
         <v>15</v>
       </c>
-      <c r="AE21" s="1">
-        <f t="shared" ref="AE21" si="21">AD21+1</f>
+      <c r="AE29" s="1">
+        <f t="shared" ref="AE29" si="37">AD29+1</f>
         <v>16</v>
       </c>
-      <c r="AF21" s="1">
-        <f t="shared" ref="AF21" si="22">AE21+1</f>
+      <c r="AF29" s="1">
+        <f t="shared" ref="AF29" si="38">AE29+1</f>
         <v>17</v>
       </c>
-      <c r="AG21" s="1">
-        <f t="shared" ref="AG21" si="23">AF21+1</f>
+      <c r="AG29" s="1">
+        <f t="shared" ref="AG29" si="39">AF29+1</f>
         <v>18</v>
       </c>
-      <c r="AH21" s="1">
-        <f t="shared" ref="AH21" si="24">AG21+1</f>
+      <c r="AH29" s="1">
+        <f t="shared" ref="AH29" si="40">AG29+1</f>
         <v>19</v>
       </c>
-      <c r="AI21" s="2">
-        <f t="shared" ref="AI21" si="25">AH21+1</f>
+      <c r="AI29" s="2">
+        <f t="shared" ref="AI29" si="41">AH29+1</f>
         <v>20</v>
       </c>
-      <c r="AJ21" s="1">
-        <f t="shared" ref="AJ21" si="26">AI21+1</f>
+      <c r="AJ29" s="1">
+        <f t="shared" ref="AJ29" si="42">AI29+1</f>
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W27">
+    <row r="31" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="R31" s="9" t="str">
+        <f>X46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(9, new Vector2(69, 533), 67, 69, 'h', new Point(1, 8), new Vector2(-1, -4), 's'));</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="X31" s="8">
+        <f>X29</f>
+        <v>9</v>
+      </c>
+      <c r="Y31" s="8">
+        <f t="shared" ref="Y31:AJ31" si="43">Y29</f>
+        <v>10</v>
+      </c>
+      <c r="Z31" s="8">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="AA31" s="8">
+        <f t="shared" si="43"/>
+        <v>12</v>
+      </c>
+      <c r="AB31" s="8">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="AC31" s="8">
+        <f t="shared" si="43"/>
+        <v>14</v>
+      </c>
+      <c r="AD31" s="8">
+        <f t="shared" si="43"/>
+        <v>15</v>
+      </c>
+      <c r="AE31" s="8">
+        <f t="shared" si="43"/>
+        <v>16</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="43"/>
+        <v>17</v>
+      </c>
+      <c r="AG31" s="8">
+        <f t="shared" si="43"/>
+        <v>18</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+      <c r="AI31" s="8">
+        <f t="shared" si="43"/>
+        <v>20</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f t="shared" si="43"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="R32" s="9" t="str">
+        <f>Y46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(10, new Vector2(137, 533), 67, 69, 'h', new Point(2, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7">
+        <f>X18</f>
+        <v>68.571428571428569</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" ref="Y32:AJ32" si="44">Y18</f>
+        <v>137.14285714285714</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" si="44"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="44"/>
+        <v>274.28571428571428</v>
+      </c>
+      <c r="AB32" s="7">
+        <f t="shared" si="44"/>
+        <v>342.85714285714283</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="44"/>
+        <v>411.42857142857139</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="shared" si="44"/>
+        <v>479.99999999999994</v>
+      </c>
+      <c r="AE32" s="7">
+        <f t="shared" si="44"/>
+        <v>548.57142857142856</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="44"/>
+        <v>617.14285714285711</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" si="44"/>
+        <v>685.71428571428567</v>
+      </c>
+      <c r="AH32" s="7">
+        <f t="shared" si="44"/>
+        <v>754.28571428571422</v>
+      </c>
+      <c r="AI32" s="7">
+        <f t="shared" si="44"/>
+        <v>822.85714285714278</v>
+      </c>
+      <c r="AJ32" s="7">
+        <f t="shared" si="44"/>
+        <v>891.42857142857133</v>
+      </c>
+    </row>
+    <row r="33" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R33" s="9" t="str">
+        <f>Z46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(11, new Vector2(206, 533), 67, 69, 'h', new Point(3, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="V33" t="s">
+        <v>139</v>
+      </c>
+      <c r="X33">
+        <f>ROUND(X32,0)</f>
+        <v>69</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33:AJ33" si="45">ROUND(Y32,0)</f>
+        <v>137</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="45"/>
+        <v>206</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="45"/>
+        <v>274</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="45"/>
+        <v>343</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="45"/>
+        <v>411</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="45"/>
+        <v>480</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="45"/>
+        <v>549</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="45"/>
+        <v>617</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="45"/>
+        <v>686</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="45"/>
+        <v>754</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="45"/>
+        <v>823</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="45"/>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="34" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R34" s="9" t="str">
+        <f>AA46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(12, new Vector2(274, 533), 67, 69, 'h', new Point(4, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="X34">
+        <f>$E$29</f>
+        <v>533</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ref="Y34:AJ34" si="46">$E$29</f>
+        <v>533</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="46"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="35" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="Q35" s="7"/>
+      <c r="R35" s="11" t="str">
+        <f>AB46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(13, new Vector2(343, 533), 67, 69, 'h', new Point(5, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="X35" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",X33,", ",X34,"), ")</f>
+        <v xml:space="preserve">new Vector2(69, 533), </v>
+      </c>
+      <c r="Y35" s="8" t="str">
+        <f t="shared" ref="Y35:AJ35" si="47">CONCATENATE("new Vector2(",Y33,", ",Y34,"), ")</f>
+        <v xml:space="preserve">new Vector2(137, 533), </v>
+      </c>
+      <c r="Z35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(206, 533), </v>
+      </c>
+      <c r="AA35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(274, 533), </v>
+      </c>
+      <c r="AB35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(343, 533), </v>
+      </c>
+      <c r="AC35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(411, 533), </v>
+      </c>
+      <c r="AD35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(480, 533), </v>
+      </c>
+      <c r="AE35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(549, 533), </v>
+      </c>
+      <c r="AF35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(617, 533), </v>
+      </c>
+      <c r="AG35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(686, 533), </v>
+      </c>
+      <c r="AH35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(754, 533), </v>
+      </c>
+      <c r="AI35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(823, 533), </v>
+      </c>
+      <c r="AJ35" s="8" t="str">
+        <f t="shared" si="47"/>
+        <v xml:space="preserve">new Vector2(891, 533), </v>
+      </c>
+    </row>
+    <row r="36" spans="17:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="11" t="str">
+        <f>AC46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(14, new Vector2(411, 533), 67, 69, 'h', new Point(6, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" s="10">
+        <f>X14</f>
+        <v>67</v>
+      </c>
+      <c r="Y36" s="10">
+        <f t="shared" ref="Y36:AJ36" si="48">Y14</f>
+        <v>67</v>
+      </c>
+      <c r="Z36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AA36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AB36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AC36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AD36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AE36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AF36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AG36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AH36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AI36" s="10">
+        <f t="shared" si="48"/>
+        <v>67</v>
+      </c>
+      <c r="AJ36" s="10">
+        <f>AI36</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R37" s="9" t="str">
+        <f>AD46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(15, new Vector2(480, 533), 67, 69, 'h', new Point(7, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="V37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="X37" s="8">
+        <f>X13</f>
+        <v>69</v>
+      </c>
+      <c r="Y37" s="8">
+        <f t="shared" ref="Y37:AJ37" si="49">Y13</f>
+        <v>69</v>
+      </c>
+      <c r="Z37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AA37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AB37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AC37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AD37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AE37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AG37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AH37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AI37" s="8">
+        <f t="shared" si="49"/>
+        <v>69</v>
+      </c>
+      <c r="AJ37" s="10">
+        <f t="shared" ref="AJ37:AJ38" si="50">AI37</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R38" s="9" t="str">
+        <f>AE46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(16, new Vector2(549, 533), 67, 69, 'h', new Point(8, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="X38" s="8" t="str">
+        <f>X12</f>
+        <v>h</v>
+      </c>
+      <c r="Y38" s="8" t="str">
+        <f t="shared" ref="Y38:AJ38" si="51">Y12</f>
+        <v>h</v>
+      </c>
+      <c r="Z38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AA38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AB38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AC38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AD38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AE38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AF38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AG38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AH38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AI38" s="8" t="str">
+        <f t="shared" si="51"/>
+        <v>h</v>
+      </c>
+      <c r="AJ38" s="10" t="str">
+        <f t="shared" si="50"/>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="39" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R39" s="9" t="str">
+        <f>AF46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(17, new Vector2(617, 533), 67, 69, 'h', new Point(9, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="X39">
+        <f>X11</f>
         <v>1</v>
       </c>
-      <c r="Y27">
+      <c r="Y39">
+        <f t="shared" ref="Y39:AJ39" si="52">Y11</f>
         <v>2</v>
       </c>
-      <c r="Z27">
+      <c r="Z39">
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
-      <c r="AA27">
+      <c r="AA39">
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
-      <c r="AB27">
+      <c r="AB39">
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
-      <c r="AC27">
+      <c r="AC39">
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
-      <c r="AD27">
+      <c r="AD39">
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
-      <c r="AE27">
+      <c r="AE39">
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
-      <c r="AF27">
+      <c r="AF39">
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
-      <c r="AG27">
+      <c r="AG39">
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
-      <c r="AH27">
+      <c r="AH39">
+        <f t="shared" si="52"/>
         <v>11</v>
       </c>
-      <c r="AI27">
+      <c r="AI39">
+        <f t="shared" si="52"/>
         <v>12</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ39">
+        <f>AI39+1</f>
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="V28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7">
-        <f>W28+$K$3</f>
-        <v>68.571428571428569</v>
-      </c>
-      <c r="Y28" s="7">
-        <f t="shared" ref="Y28:AJ28" si="27">X28+$K$3</f>
-        <v>137.14285714285714</v>
-      </c>
-      <c r="Z28" s="7">
-        <f t="shared" si="27"/>
-        <v>205.71428571428572</v>
-      </c>
-      <c r="AA28" s="7">
-        <f t="shared" si="27"/>
-        <v>274.28571428571428</v>
-      </c>
-      <c r="AB28" s="7">
-        <f t="shared" si="27"/>
-        <v>342.85714285714283</v>
-      </c>
-      <c r="AC28" s="7">
-        <f t="shared" si="27"/>
-        <v>411.42857142857139</v>
-      </c>
-      <c r="AD28" s="7">
-        <f t="shared" si="27"/>
-        <v>479.99999999999994</v>
-      </c>
-      <c r="AE28" s="7">
-        <f t="shared" si="27"/>
-        <v>548.57142857142856</v>
-      </c>
-      <c r="AF28" s="7">
-        <f t="shared" si="27"/>
-        <v>617.14285714285711</v>
-      </c>
-      <c r="AG28" s="7">
-        <f t="shared" si="27"/>
-        <v>685.71428571428567</v>
-      </c>
-      <c r="AH28" s="7">
-        <f t="shared" si="27"/>
-        <v>754.28571428571422</v>
-      </c>
-      <c r="AI28" s="7">
-        <f t="shared" si="27"/>
-        <v>822.85714285714278</v>
-      </c>
-      <c r="AJ28" s="7">
-        <f t="shared" si="27"/>
-        <v>891.42857142857133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="V29" t="s">
-        <v>139</v>
-      </c>
-      <c r="W29">
-        <f>ROUND(W28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f t="shared" ref="X29:AJ29" si="28">ROUND(X28,0)</f>
-        <v>69</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="28"/>
-        <v>137</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="28"/>
-        <v>206</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="28"/>
-        <v>274</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="28"/>
-        <v>343</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="28"/>
-        <v>411</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="28"/>
-        <v>480</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="28"/>
-        <v>549</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="28"/>
-        <v>617</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="28"/>
-        <v>686</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="28"/>
-        <v>754</v>
-      </c>
-      <c r="AI29">
-        <f t="shared" si="28"/>
-        <v>823</v>
-      </c>
-      <c r="AJ29">
-        <f t="shared" si="28"/>
-        <v>891</v>
-      </c>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="V30" t="s">
-        <v>140</v>
-      </c>
-      <c r="W30">
-        <f>ROUND($K$2,0)</f>
-        <v>67</v>
-      </c>
-      <c r="X30">
-        <f t="shared" ref="X30:AJ30" si="29">ROUND($K$2,0)</f>
-        <v>67</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-      <c r="AJ30">
-        <f t="shared" si="29"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="V31" t="s">
-        <v>141</v>
-      </c>
-      <c r="W31">
-        <f>ROUND($K$3,0)</f>
-        <v>69</v>
-      </c>
-      <c r="X31">
-        <f t="shared" ref="X31:AJ31" si="30">ROUND($K$3,0)</f>
-        <v>69</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AI31">
-        <f t="shared" si="30"/>
-        <v>69</v>
-      </c>
-      <c r="AJ31">
-        <f t="shared" si="30"/>
-        <v>69</v>
+    <row r="40" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R40" s="9" t="str">
+        <f>AG46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(18, new Vector2(686, 533), 67, 69, 'h', new Point(10, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="X40">
+        <f>$K$29</f>
+        <v>8</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ref="Y40:AJ40" si="53">$K$29</f>
+        <v>8</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R41" s="9" t="str">
+        <f>AH46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(19, new Vector2(754, 533), 67, 69, 'h', new Point(11, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="X41" s="8" t="str">
+        <f>CONCATENATE("new Point(",X39,", ",X40,"), ")</f>
+        <v xml:space="preserve">new Point(1, 8), </v>
+      </c>
+      <c r="Y41" s="8" t="str">
+        <f t="shared" ref="Y41:AJ41" si="54">CONCATENATE("new Point(",Y39,", ",Y40,"), ")</f>
+        <v xml:space="preserve">new Point(2, 8), </v>
+      </c>
+      <c r="Z41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(3, 8), </v>
+      </c>
+      <c r="AA41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(4, 8), </v>
+      </c>
+      <c r="AB41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(5, 8), </v>
+      </c>
+      <c r="AC41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(6, 8), </v>
+      </c>
+      <c r="AD41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(7, 8), </v>
+      </c>
+      <c r="AE41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(8, 8), </v>
+      </c>
+      <c r="AF41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(9, 8), </v>
+      </c>
+      <c r="AG41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(10, 8), </v>
+      </c>
+      <c r="AH41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(11, 8), </v>
+      </c>
+      <c r="AI41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(12, 8), </v>
+      </c>
+      <c r="AJ41" s="8" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve">new Point(13, 8), </v>
+      </c>
+    </row>
+    <row r="42" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R42" s="9" t="str">
+        <f>AI46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(20, new Vector2(823, 533), 67, 69, 'h', new Point(12, 8), new Vector2(-1, 4), 's'));</v>
+      </c>
+      <c r="V42" t="s">
+        <v>153</v>
+      </c>
+      <c r="X42">
+        <f>X8</f>
+        <v>-4</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" ref="Y42:AJ42" si="55">Y8</f>
+        <v>-4</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="55"/>
+        <v>-4</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="55"/>
+        <v>-4</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="55"/>
+        <v>-4</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="55"/>
+        <v>-4</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="AJ42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R43" s="9" t="str">
+        <f>AJ46</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(21, new Vector2(891, 533), 67, 69, 'h', new Point(13, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
+        <v>-1</v>
+      </c>
+      <c r="AD43">
+        <v>-1</v>
+      </c>
+      <c r="AE43">
+        <v>-1</v>
+      </c>
+      <c r="AF43">
+        <v>-1</v>
+      </c>
+      <c r="AG43">
+        <v>-1</v>
+      </c>
+      <c r="AH43">
+        <v>-1</v>
+      </c>
+      <c r="AI43">
+        <v>-1</v>
+      </c>
+      <c r="AJ43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="X44" s="8" t="str">
+        <f>CONCATENATE("new Vector2(",X43,", ",X42,"), ")</f>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="Y44" s="8" t="str">
+        <f t="shared" ref="Y44:AJ44" si="56">CONCATENATE("new Vector2(",Y43,", ",Y42,"), ")</f>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="Z44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AA44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AB44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AC44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, -4), </v>
+      </c>
+      <c r="AD44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AE44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AF44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AG44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AH44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AI44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+      <c r="AJ44" s="8" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve">new Vector2(-1, 4), </v>
+      </c>
+    </row>
+    <row r="45" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R45" s="9" t="str">
+        <f>AZ28</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(22, new Vector2(891, 467), 67, 94, 'v', new Point(13, 7), new Vector2(-1, 4), 's'));</v>
+      </c>
+      <c r="X45" s="8" t="str">
+        <f>X5</f>
+        <v>s</v>
+      </c>
+      <c r="Y45" s="8" t="str">
+        <f t="shared" ref="Y45:AJ45" si="57">Y5</f>
+        <v>c</v>
+      </c>
+      <c r="Z45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AA45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AB45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AC45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AD45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AE45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AF45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AG45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AH45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>c</v>
+      </c>
+      <c r="AI45" s="8" t="str">
+        <f t="shared" si="57"/>
+        <v>s</v>
+      </c>
+      <c r="AJ45" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R46" s="9" t="str">
+        <f>AZ27</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(23, new Vector2(891, 400), 67, 94, 'v', new Point(13, 6), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="X46" s="9" t="str">
+        <f>CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",X31,", ",X35,X36,", ",X37,", ","'",X38,"', ",X41,X44,"'",X45,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(9, new Vector2(69, 533), 67, 69, 'h', new Point(1, 8), new Vector2(-1, -4), 's'));</v>
+      </c>
+      <c r="Y46" s="9" t="str">
+        <f t="shared" ref="Y46:AJ46" si="58">CONCATENATE("CP_1.Game1.listaCasas.Add(new Casas2(",Y31,", ",Y35,Y36,", ",Y37,", ","'",Y38,"', ",Y41,Y44,"'",Y45,"'));")</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(10, new Vector2(137, 533), 67, 69, 'h', new Point(2, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="Z46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(11, new Vector2(206, 533), 67, 69, 'h', new Point(3, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="AA46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(12, new Vector2(274, 533), 67, 69, 'h', new Point(4, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="AB46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(13, new Vector2(343, 533), 67, 69, 'h', new Point(5, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="AC46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(14, new Vector2(411, 533), 67, 69, 'h', new Point(6, 8), new Vector2(-1, -4), 'c'));</v>
+      </c>
+      <c r="AD46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(15, new Vector2(480, 533), 67, 69, 'h', new Point(7, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="AE46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(16, new Vector2(549, 533), 67, 69, 'h', new Point(8, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="AF46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(17, new Vector2(617, 533), 67, 69, 'h', new Point(9, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="AG46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(18, new Vector2(686, 533), 67, 69, 'h', new Point(10, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="AH46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(19, new Vector2(754, 533), 67, 69, 'h', new Point(11, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+      <c r="AI46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(20, new Vector2(823, 533), 67, 69, 'h', new Point(12, 8), new Vector2(-1, 4), 's'));</v>
+      </c>
+      <c r="AJ46" s="9" t="str">
+        <f t="shared" si="58"/>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(21, new Vector2(891, 533), 67, 69, 'h', new Point(13, 8), new Vector2(-1, 4), 'c'));</v>
+      </c>
+    </row>
+    <row r="47" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R47" s="9" t="str">
+        <f>AZ26</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(24, new Vector2(891, 333), 67, 94, 'v', new Point(13, 5), new Vector2(-1, 4), 'c'));</v>
+      </c>
+    </row>
+    <row r="48" spans="17:36" x14ac:dyDescent="0.25">
+      <c r="R48" s="9" t="str">
+        <f>AZ25</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(25, new Vector2(891, 267), 67, 94, 'v', new Point(13, 4), new Vector2(-1, 4), 'c'));</v>
+      </c>
+    </row>
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R49" s="9" t="str">
+        <f>AZ24</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(26, new Vector2(891, 200), 67, 94, 'v', new Point(13, 3), new Vector2(-1, -4), 'c'));</v>
+      </c>
+    </row>
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R50" s="9" t="str">
+        <f>AZ23</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(27, new Vector2(891, 133), 67, 94, 'v', new Point(13, 2), new Vector2(-1, -4), 'c'));</v>
+      </c>
+    </row>
+    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R51" s="11" t="str">
+        <f>AZ22</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(28, new Vector2(891, 67), 67, 94, 'v', new Point(13, 1), new Vector2(-1, -4), 's'));</v>
+      </c>
+    </row>
+    <row r="52" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R52" s="9" t="str">
+        <f>AZ21</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(29, new Vector2(891, 0), 67, 94, 'v', new Point(13, 0), new Vector2(-1, -4), 'c'));</v>
+      </c>
+    </row>
+    <row r="54" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R54" s="9" t="str">
+        <f>AI4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(30, new Vector2(823, 0), 67, 69, 'h', new Point(12, 0), new Vector2(4, 1), 's'));</v>
+      </c>
+    </row>
+    <row r="55" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R55" s="9" t="str">
+        <f>AH4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(31, new Vector2(754, 0), 67, 69, 'h', new Point(11, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="56" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R56" s="9" t="str">
+        <f>AG4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(32, new Vector2(686, 0), 67, 69, 'h', new Point(10, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="57" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R57" s="9" t="str">
+        <f>AF4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(33, new Vector2(617, 0), 67, 69, 'h', new Point(9, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="58" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R58" s="9" t="str">
+        <f>AE4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(34, new Vector2(549, 0), 67, 69, 'h', new Point(8, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="59" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R59" s="9" t="str">
+        <f>AD4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(35, new Vector2(480, 0), 67, 69, 'h', new Point(7, 0), new Vector2(4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="60" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R60" s="9" t="str">
+        <f>AC4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(36, new Vector2(411, 0), 67, 69, 'h', new Point(6, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="61" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R61" s="9" t="str">
+        <f>AB4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(37, new Vector2(343, 0), 67, 69, 'h', new Point(5, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="62" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R62" s="9" t="str">
+        <f>AA4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(38, new Vector2(274, 0), 67, 69, 'h', new Point(4, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="63" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R63" s="9" t="str">
+        <f>Z4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(39, new Vector2(206, 0), 67, 69, 'h', new Point(3, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="64" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R64" s="9" t="str">
+        <f>Y4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(40, new Vector2(137, 0), 67, 69, 'h', new Point(2, 0), new Vector2(-4, 1), 'c'));</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R65" s="9" t="str">
+        <f>X4</f>
+        <v>CP_1.Game1.listaCasas.Add(new Casas2(41, new Vector2(69, 0), 67, 69, 'h', new Point(1, 0), new Vector2(-4, 1), 's'));</v>
       </c>
     </row>
   </sheetData>
